--- a/raw_data/20200818_saline/20200818_Sensor3_Test_18.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_18.xlsx
@@ -1,1250 +1,1666 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FB0A21-FCA2-47E4-BD7F-548672FE1E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>15859.271006</v>
+        <v>15859.271006000001</v>
       </c>
       <c r="B2" s="1">
-        <v>4.405353</v>
+        <v>4.4053529999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>1141.720000</v>
+        <v>1141.72</v>
       </c>
       <c r="D2" s="1">
-        <v>-258.275000</v>
+        <v>-258.27499999999998</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>15869.661917</v>
+        <v>15869.661916999999</v>
       </c>
       <c r="G2" s="1">
         <v>4.408239</v>
       </c>
       <c r="H2" s="1">
-        <v>1163.000000</v>
+        <v>1163</v>
       </c>
       <c r="I2" s="1">
-        <v>-216.737000</v>
+        <v>-216.73699999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>15880.165199</v>
+        <v>15880.165198999999</v>
       </c>
       <c r="L2" s="1">
-        <v>4.411157</v>
+        <v>4.4111570000000002</v>
       </c>
       <c r="M2" s="1">
-        <v>1189.820000</v>
+        <v>1189.82</v>
       </c>
       <c r="N2" s="1">
-        <v>-149.742000</v>
+        <v>-149.74199999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>15890.639711</v>
       </c>
       <c r="Q2" s="1">
-        <v>4.414067</v>
+        <v>4.4140670000000002</v>
       </c>
       <c r="R2" s="1">
-        <v>1197.190000</v>
+        <v>1197.19</v>
       </c>
       <c r="S2" s="1">
-        <v>-127.579000</v>
+        <v>-127.57899999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>15901.225826</v>
       </c>
       <c r="V2" s="1">
-        <v>4.417007</v>
+        <v>4.4170069999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1204.060000</v>
+        <v>1204.06</v>
       </c>
       <c r="X2" s="1">
-        <v>-106.694000</v>
+        <v>-106.694</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>15911.673093</v>
+        <v>15911.673092999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>4.419909</v>
+        <v>4.4199089999999996</v>
       </c>
       <c r="AB2" s="1">
-        <v>1211.260000</v>
+        <v>1211.26</v>
       </c>
       <c r="AC2" s="1">
-        <v>-89.881200</v>
+        <v>-89.881200000000007</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>15922.200678</v>
+        <v>15922.200677999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>4.422834</v>
+        <v>4.4228339999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>1215.480000</v>
+        <v>1215.48</v>
       </c>
       <c r="AH2" s="1">
-        <v>-85.424100</v>
+        <v>-85.424099999999996</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>15932.613161</v>
+        <v>15932.613160999999</v>
       </c>
       <c r="AK2" s="1">
         <v>4.425726</v>
       </c>
       <c r="AL2" s="1">
-        <v>1222.580000</v>
+        <v>1222.58</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.033100</v>
+        <v>-89.033100000000005</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>15943.175003</v>
       </c>
       <c r="AP2" s="1">
-        <v>4.428660</v>
+        <v>4.4286599999999998</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1230.430000</v>
+        <v>1230.43</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.125000</v>
+        <v>-101.125</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>15954.154908</v>
       </c>
       <c r="AU2" s="1">
-        <v>4.431710</v>
+        <v>4.4317099999999998</v>
       </c>
       <c r="AV2" s="1">
-        <v>1240.360000</v>
+        <v>1240.3599999999999</v>
       </c>
       <c r="AW2" s="1">
-        <v>-120.563000</v>
+        <v>-120.563</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>15965.519773</v>
       </c>
       <c r="AZ2" s="1">
-        <v>4.434867</v>
+        <v>4.4348669999999997</v>
       </c>
       <c r="BA2" s="1">
-        <v>1248.750000</v>
+        <v>1248.75</v>
       </c>
       <c r="BB2" s="1">
-        <v>-138.106000</v>
+        <v>-138.10599999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>15976.494016</v>
+        <v>15976.494016000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>4.437915</v>
+        <v>4.4379150000000003</v>
       </c>
       <c r="BF2" s="1">
-        <v>1288.700000</v>
+        <v>1288.7</v>
       </c>
       <c r="BG2" s="1">
-        <v>-220.253000</v>
+        <v>-220.25299999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>15987.278240</v>
+        <v>15987.27824</v>
       </c>
       <c r="BJ2" s="1">
-        <v>4.440911</v>
+        <v>4.4409109999999998</v>
       </c>
       <c r="BK2" s="1">
-        <v>1357.970000</v>
+        <v>1357.97</v>
       </c>
       <c r="BL2" s="1">
-        <v>-357.183000</v>
+        <v>-357.18299999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>15998.381186</v>
+        <v>15998.381186000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>4.443995</v>
+        <v>4.4439950000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1471.770000</v>
+        <v>1471.77</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-580.548000</v>
+        <v>-580.548</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>16009.549635</v>
+        <v>16009.549634999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>4.447097</v>
+        <v>4.4470970000000003</v>
       </c>
       <c r="BU2" s="1">
-        <v>1603.650000</v>
+        <v>1603.65</v>
       </c>
       <c r="BV2" s="1">
-        <v>-833.211000</v>
+        <v>-833.21100000000001</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>16020.687796</v>
       </c>
       <c r="BY2" s="1">
-        <v>4.450191</v>
+        <v>4.4501910000000002</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1755.170000</v>
+        <v>1755.17</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1108.720000</v>
+        <v>-1108.72</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>16031.925125</v>
       </c>
       <c r="CD2" s="1">
-        <v>4.453313</v>
+        <v>4.4533129999999996</v>
       </c>
       <c r="CE2" s="1">
-        <v>2175.340000</v>
+        <v>2175.34</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1779.990000</v>
+        <v>-1779.99</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>15859.645706</v>
+        <v>15859.645705999999</v>
       </c>
       <c r="B3" s="1">
-        <v>4.405457</v>
+        <v>4.4054570000000002</v>
       </c>
       <c r="C3" s="1">
-        <v>1141.810000</v>
+        <v>1141.81</v>
       </c>
       <c r="D3" s="1">
-        <v>-258.047000</v>
+        <v>-258.04700000000003</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>15870.032427</v>
       </c>
       <c r="G3" s="1">
-        <v>4.408342</v>
+        <v>4.4083420000000002</v>
       </c>
       <c r="H3" s="1">
-        <v>1162.830000</v>
+        <v>1162.83</v>
       </c>
       <c r="I3" s="1">
-        <v>-216.074000</v>
+        <v>-216.07400000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>15880.508430</v>
+        <v>15880.50843</v>
       </c>
       <c r="L3" s="1">
-        <v>4.411252</v>
+        <v>4.4112520000000002</v>
       </c>
       <c r="M3" s="1">
-        <v>1189.620000</v>
+        <v>1189.6199999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-149.894000</v>
+        <v>-149.89400000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>15891.016704</v>
       </c>
       <c r="Q3" s="1">
-        <v>4.414171</v>
+        <v>4.4141709999999996</v>
       </c>
       <c r="R3" s="1">
-        <v>1197.200000</v>
+        <v>1197.2</v>
       </c>
       <c r="S3" s="1">
-        <v>-127.658000</v>
+        <v>-127.658</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>15901.940562</v>
       </c>
       <c r="V3" s="1">
-        <v>4.417206</v>
+        <v>4.4172060000000002</v>
       </c>
       <c r="W3" s="1">
-        <v>1204.070000</v>
+        <v>1204.07</v>
       </c>
       <c r="X3" s="1">
-        <v>-106.707000</v>
+        <v>-106.70699999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>15912.408627</v>
+        <v>15912.408627000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>4.420114</v>
+        <v>4.4201139999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>1211.280000</v>
+        <v>1211.28</v>
       </c>
       <c r="AC3" s="1">
-        <v>-89.949300</v>
+        <v>-89.949299999999994</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>15922.547846</v>
+        <v>15922.547845999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>4.422930</v>
+        <v>4.42293</v>
       </c>
       <c r="AG3" s="1">
-        <v>1215.680000</v>
+        <v>1215.68</v>
       </c>
       <c r="AH3" s="1">
-        <v>-85.459200</v>
+        <v>-85.459199999999996</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>15932.976764</v>
+        <v>15932.976763999999</v>
       </c>
       <c r="AK3" s="1">
         <v>4.425827</v>
       </c>
       <c r="AL3" s="1">
-        <v>1222.580000</v>
+        <v>1222.58</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.045400</v>
+        <v>-89.045400000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>15943.554906</v>
+        <v>15943.554905999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>4.428765</v>
+        <v>4.4287650000000003</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1230.440000</v>
+        <v>1230.44</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.111000</v>
+        <v>-101.111</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>15954.835420</v>
+        <v>15954.835419999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>4.431899</v>
+        <v>4.4318989999999996</v>
       </c>
       <c r="AV3" s="1">
-        <v>1240.360000</v>
+        <v>1240.3599999999999</v>
       </c>
       <c r="AW3" s="1">
-        <v>-120.540000</v>
+        <v>-120.54</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>15965.957709</v>
       </c>
       <c r="AZ3" s="1">
-        <v>4.434988</v>
+        <v>4.4349879999999997</v>
       </c>
       <c r="BA3" s="1">
-        <v>1248.770000</v>
+        <v>1248.77</v>
       </c>
       <c r="BB3" s="1">
-        <v>-138.111000</v>
+        <v>-138.11099999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>15976.939133</v>
       </c>
       <c r="BE3" s="1">
-        <v>4.438039</v>
+        <v>4.4380389999999998</v>
       </c>
       <c r="BF3" s="1">
-        <v>1288.690000</v>
+        <v>1288.69</v>
       </c>
       <c r="BG3" s="1">
-        <v>-220.285000</v>
+        <v>-220.285</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>15987.656191</v>
       </c>
       <c r="BJ3" s="1">
-        <v>4.441016</v>
+        <v>4.4410160000000003</v>
       </c>
       <c r="BK3" s="1">
-        <v>1358.080000</v>
+        <v>1358.08</v>
       </c>
       <c r="BL3" s="1">
-        <v>-357.211000</v>
+        <v>-357.21100000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>15998.817170</v>
+        <v>15998.81717</v>
       </c>
       <c r="BO3" s="1">
-        <v>4.444116</v>
+        <v>4.4441160000000002</v>
       </c>
       <c r="BP3" s="1">
-        <v>1471.780000</v>
+        <v>1471.78</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-580.576000</v>
+        <v>-580.57600000000002</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>16009.984626</v>
+        <v>16009.984625999999</v>
       </c>
       <c r="BT3" s="1">
-        <v>4.447218</v>
+        <v>4.4472180000000003</v>
       </c>
       <c r="BU3" s="1">
-        <v>1603.620000</v>
+        <v>1603.62</v>
       </c>
       <c r="BV3" s="1">
-        <v>-833.264000</v>
+        <v>-833.26400000000001</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>16021.175363</v>
       </c>
       <c r="BY3" s="1">
-        <v>4.450326</v>
+        <v>4.4503259999999996</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1755.150000</v>
+        <v>1755.15</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1108.960000</v>
+        <v>-1108.96</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>16032.175141</v>
       </c>
       <c r="CD3" s="1">
-        <v>4.453382</v>
+        <v>4.4533820000000004</v>
       </c>
       <c r="CE3" s="1">
-        <v>2174.970000</v>
+        <v>2174.9699999999998</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1780.040000</v>
+        <v>-1780.04</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>15859.987958</v>
       </c>
       <c r="B4" s="1">
-        <v>4.405552</v>
+        <v>4.4055520000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1141.390000</v>
+        <v>1141.3900000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-258.123000</v>
+        <v>-258.12299999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>15870.374703</v>
+        <v>15870.374702999999</v>
       </c>
       <c r="G4" s="1">
-        <v>4.408437</v>
+        <v>4.4084370000000002</v>
       </c>
       <c r="H4" s="1">
-        <v>1162.930000</v>
+        <v>1162.93</v>
       </c>
       <c r="I4" s="1">
-        <v>-215.972000</v>
+        <v>-215.97200000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>15881.199879</v>
       </c>
       <c r="L4" s="1">
-        <v>4.411444</v>
+        <v>4.4114440000000004</v>
       </c>
       <c r="M4" s="1">
-        <v>1189.630000</v>
+        <v>1189.6300000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-149.677000</v>
+        <v>-149.67699999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>15891.714542</v>
       </c>
       <c r="Q4" s="1">
-        <v>4.414365</v>
+        <v>4.4143650000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1197.130000</v>
+        <v>1197.1300000000001</v>
       </c>
       <c r="S4" s="1">
-        <v>-127.662000</v>
+        <v>-127.66200000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>15902.284819</v>
       </c>
       <c r="V4" s="1">
-        <v>4.417301</v>
+        <v>4.4173010000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>1204.080000</v>
+        <v>1204.08</v>
       </c>
       <c r="X4" s="1">
-        <v>-106.724000</v>
+        <v>-106.724</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>15912.755363</v>
       </c>
       <c r="AA4" s="1">
-        <v>4.420210</v>
+        <v>4.42021</v>
       </c>
       <c r="AB4" s="1">
-        <v>1211.180000</v>
+        <v>1211.18</v>
       </c>
       <c r="AC4" s="1">
-        <v>-89.882200</v>
+        <v>-89.882199999999997</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>15922.890085</v>
+        <v>15922.890085000001</v>
       </c>
       <c r="AF4" s="1">
         <v>4.423025</v>
       </c>
       <c r="AG4" s="1">
-        <v>1215.660000</v>
+        <v>1215.6600000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-85.539800</v>
+        <v>-85.5398</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>15933.641399</v>
       </c>
       <c r="AK4" s="1">
-        <v>4.426011</v>
+        <v>4.4260109999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>1222.580000</v>
+        <v>1222.58</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.037000</v>
+        <v>-89.037000000000006</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>15944.220537</v>
+        <v>15944.220536999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>4.428950</v>
+        <v>4.4289500000000004</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1230.440000</v>
+        <v>1230.44</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.081000</v>
+        <v>-101.081</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>15955.256059</v>
+        <v>15955.256058999999</v>
       </c>
       <c r="AU4" s="1">
         <v>4.432016</v>
       </c>
       <c r="AV4" s="1">
-        <v>1240.380000</v>
+        <v>1240.3800000000001</v>
       </c>
       <c r="AW4" s="1">
-        <v>-120.564000</v>
+        <v>-120.56399999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>15966.314333</v>
       </c>
       <c r="AZ4" s="1">
-        <v>4.435087</v>
+        <v>4.4350870000000002</v>
       </c>
       <c r="BA4" s="1">
-        <v>1248.760000</v>
+        <v>1248.76</v>
       </c>
       <c r="BB4" s="1">
-        <v>-138.100000</v>
+        <v>-138.1</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>15977.297741</v>
       </c>
       <c r="BE4" s="1">
-        <v>4.438138</v>
+        <v>4.4381380000000004</v>
       </c>
       <c r="BF4" s="1">
-        <v>1288.690000</v>
+        <v>1288.69</v>
       </c>
       <c r="BG4" s="1">
-        <v>-220.294000</v>
+        <v>-220.29400000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>15988.030175</v>
       </c>
       <c r="BJ4" s="1">
-        <v>4.441119</v>
+        <v>4.4411189999999996</v>
       </c>
       <c r="BK4" s="1">
-        <v>1358.000000</v>
+        <v>1358</v>
       </c>
       <c r="BL4" s="1">
-        <v>-357.227000</v>
+        <v>-357.22699999999998</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>15999.251168</v>
+        <v>15999.251168000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>4.444236</v>
+        <v>4.4442360000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1471.810000</v>
+        <v>1471.81</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-580.657000</v>
+        <v>-580.65700000000004</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>16010.399251</v>
+        <v>16010.399251000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>4.447333</v>
+        <v>4.4473330000000004</v>
       </c>
       <c r="BU4" s="1">
-        <v>1603.650000</v>
+        <v>1603.65</v>
       </c>
       <c r="BV4" s="1">
-        <v>-833.245000</v>
+        <v>-833.245</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>16021.622724</v>
+        <v>16021.622724000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>4.450451</v>
+        <v>4.4504510000000002</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1755.170000</v>
+        <v>1755.17</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1108.930000</v>
+        <v>-1108.93</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>16032.695412</v>
+        <v>16032.695411999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>4.453527</v>
+        <v>4.4535270000000002</v>
       </c>
       <c r="CE4" s="1">
-        <v>2175.770000</v>
+        <v>2175.77</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1778.320000</v>
+        <v>-1778.32</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>15860.326713</v>
       </c>
@@ -1252,133 +1668,133 @@
         <v>4.405646</v>
       </c>
       <c r="C5" s="1">
-        <v>1141.840000</v>
+        <v>1141.8399999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>-258.190000</v>
+        <v>-258.19</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>15871.064107</v>
       </c>
       <c r="G5" s="1">
-        <v>4.408629</v>
+        <v>4.4086290000000004</v>
       </c>
       <c r="H5" s="1">
-        <v>1162.610000</v>
+        <v>1162.6099999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-216.230000</v>
+        <v>-216.23</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>15881.545564</v>
       </c>
       <c r="L5" s="1">
-        <v>4.411540</v>
+        <v>4.4115399999999996</v>
       </c>
       <c r="M5" s="1">
-        <v>1189.570000</v>
+        <v>1189.57</v>
       </c>
       <c r="N5" s="1">
-        <v>-149.720000</v>
+        <v>-149.72</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>15892.062734</v>
+        <v>15892.062733999999</v>
       </c>
       <c r="Q5" s="1">
-        <v>4.414462</v>
+        <v>4.4144620000000003</v>
       </c>
       <c r="R5" s="1">
-        <v>1197.150000</v>
+        <v>1197.1500000000001</v>
       </c>
       <c r="S5" s="1">
-        <v>-127.632000</v>
+        <v>-127.63200000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>15902.628513</v>
       </c>
       <c r="V5" s="1">
-        <v>4.417397</v>
+        <v>4.4173970000000002</v>
       </c>
       <c r="W5" s="1">
-        <v>1204.030000</v>
+        <v>1204.03</v>
       </c>
       <c r="X5" s="1">
-        <v>-106.763000</v>
+        <v>-106.76300000000001</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>15913.102034</v>
       </c>
       <c r="AA5" s="1">
-        <v>4.420306</v>
+        <v>4.4203060000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1211.250000</v>
+        <v>1211.25</v>
       </c>
       <c r="AC5" s="1">
-        <v>-90.029600</v>
+        <v>-90.029600000000002</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>15923.544805</v>
       </c>
       <c r="AF5" s="1">
-        <v>4.423207</v>
+        <v>4.4232069999999997</v>
       </c>
       <c r="AG5" s="1">
-        <v>1215.730000</v>
+        <v>1215.73</v>
       </c>
       <c r="AH5" s="1">
-        <v>-85.504300</v>
+        <v>-85.504300000000001</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>15934.024278</v>
+        <v>15934.024278000001</v>
       </c>
       <c r="AK5" s="1">
-        <v>4.426118</v>
+        <v>4.4261179999999998</v>
       </c>
       <c r="AL5" s="1">
-        <v>1222.590000</v>
+        <v>1222.5899999999999</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.046000</v>
+        <v>-89.046000000000006</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>15944.663465</v>
       </c>
       <c r="AP5" s="1">
-        <v>4.429073</v>
+        <v>4.4290729999999998</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1230.460000</v>
+        <v>1230.46</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.086000</v>
+        <v>-101.086</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>15955.646875</v>
@@ -1387,13 +1803,13 @@
         <v>4.432124</v>
       </c>
       <c r="AV5" s="1">
-        <v>1240.350000</v>
+        <v>1240.3499999999999</v>
       </c>
       <c r="AW5" s="1">
-        <v>-120.568000</v>
+        <v>-120.568</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>15966.673933</v>
@@ -1402,240 +1818,240 @@
         <v>4.435187</v>
       </c>
       <c r="BA5" s="1">
-        <v>1248.740000</v>
+        <v>1248.74</v>
       </c>
       <c r="BB5" s="1">
-        <v>-138.123000</v>
+        <v>-138.12299999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>15977.657372</v>
       </c>
       <c r="BE5" s="1">
-        <v>4.438238</v>
+        <v>4.4382380000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1288.700000</v>
+        <v>1288.7</v>
       </c>
       <c r="BG5" s="1">
-        <v>-220.308000</v>
+        <v>-220.30799999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>15988.439375</v>
       </c>
       <c r="BJ5" s="1">
-        <v>4.441233</v>
+        <v>4.4412330000000004</v>
       </c>
       <c r="BK5" s="1">
-        <v>1358.070000</v>
+        <v>1358.07</v>
       </c>
       <c r="BL5" s="1">
-        <v>-357.218000</v>
+        <v>-357.21800000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>15999.638544</v>
+        <v>15999.638543999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>4.444344</v>
+        <v>4.4443440000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1471.760000</v>
+        <v>1471.76</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-580.628000</v>
+        <v>-580.62800000000004</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>16010.837218</v>
+        <v>16010.837218000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>4.447455</v>
+        <v>4.4474549999999997</v>
       </c>
       <c r="BU5" s="1">
-        <v>1603.580000</v>
+        <v>1603.58</v>
       </c>
       <c r="BV5" s="1">
-        <v>-833.317000</v>
+        <v>-833.31700000000001</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>16022.079074</v>
+        <v>16022.079073999999</v>
       </c>
       <c r="BY5" s="1">
-        <v>4.450578</v>
+        <v>4.4505780000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1755.240000</v>
+        <v>1755.24</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1108.890000</v>
+        <v>-1108.8900000000001</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>16033.211289</v>
+        <v>16033.211289000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>4.453670</v>
+        <v>4.4536699999999998</v>
       </c>
       <c r="CE5" s="1">
-        <v>2174.520000</v>
+        <v>2174.52</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1777.250000</v>
+        <v>-1777.25</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>15861.007719</v>
+        <v>15861.007718999999</v>
       </c>
       <c r="B6" s="1">
-        <v>4.405835</v>
+        <v>4.4058349999999997</v>
       </c>
       <c r="C6" s="1">
-        <v>1141.780000</v>
+        <v>1141.78</v>
       </c>
       <c r="D6" s="1">
-        <v>-257.832000</v>
+        <v>-257.83199999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>15871.407865</v>
+        <v>15871.407864999999</v>
       </c>
       <c r="G6" s="1">
-        <v>4.408724</v>
+        <v>4.4087240000000003</v>
       </c>
       <c r="H6" s="1">
-        <v>1162.640000</v>
+        <v>1162.6400000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-215.763000</v>
+        <v>-215.76300000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>15881.890285</v>
+        <v>15881.890284999999</v>
       </c>
       <c r="L6" s="1">
-        <v>4.411636</v>
+        <v>4.4116359999999997</v>
       </c>
       <c r="M6" s="1">
-        <v>1189.570000</v>
+        <v>1189.57</v>
       </c>
       <c r="N6" s="1">
-        <v>-149.831000</v>
+        <v>-149.83099999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>15892.411422</v>
+        <v>15892.411421999999</v>
       </c>
       <c r="Q6" s="1">
-        <v>4.414559</v>
+        <v>4.4145589999999997</v>
       </c>
       <c r="R6" s="1">
-        <v>1197.170000</v>
+        <v>1197.17</v>
       </c>
       <c r="S6" s="1">
-        <v>-127.591000</v>
+        <v>-127.59099999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>15903.278767</v>
       </c>
       <c r="V6" s="1">
-        <v>4.417577</v>
+        <v>4.4175769999999996</v>
       </c>
       <c r="W6" s="1">
-        <v>1204.180000</v>
+        <v>1204.18</v>
       </c>
       <c r="X6" s="1">
-        <v>-106.843000</v>
+        <v>-106.843</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>15913.540033</v>
+        <v>15913.540032999999</v>
       </c>
       <c r="AA6" s="1">
-        <v>4.420428</v>
+        <v>4.4204280000000002</v>
       </c>
       <c r="AB6" s="1">
-        <v>1211.140000</v>
+        <v>1211.1400000000001</v>
       </c>
       <c r="AC6" s="1">
-        <v>-89.724700</v>
+        <v>-89.724699999999999</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>15923.913332</v>
       </c>
       <c r="AF6" s="1">
-        <v>4.423309</v>
+        <v>4.4233089999999997</v>
       </c>
       <c r="AG6" s="1">
-        <v>1215.670000</v>
+        <v>1215.67</v>
       </c>
       <c r="AH6" s="1">
-        <v>-85.633500</v>
+        <v>-85.633499999999998</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>15934.374486</v>
+        <v>15934.374486000001</v>
       </c>
       <c r="AK6" s="1">
         <v>4.426215</v>
       </c>
       <c r="AL6" s="1">
-        <v>1222.570000</v>
+        <v>1222.57</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.014200</v>
+        <v>-89.014200000000002</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>15945.013144</v>
       </c>
       <c r="AP6" s="1">
-        <v>4.429170</v>
+        <v>4.4291700000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1230.440000</v>
+        <v>1230.44</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.121000</v>
+        <v>-101.121</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>15956.013417</v>
@@ -1644,165 +2060,165 @@
         <v>4.432226</v>
       </c>
       <c r="AV6" s="1">
-        <v>1240.330000</v>
+        <v>1240.33</v>
       </c>
       <c r="AW6" s="1">
-        <v>-120.582000</v>
+        <v>-120.58199999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>15967.090114</v>
+        <v>15967.090114000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>4.435303</v>
+        <v>4.4353030000000002</v>
       </c>
       <c r="BA6" s="1">
-        <v>1248.740000</v>
+        <v>1248.74</v>
       </c>
       <c r="BB6" s="1">
-        <v>-138.091000</v>
+        <v>-138.09100000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>15978.070509</v>
+        <v>15978.070508999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>4.438353</v>
+        <v>4.4383530000000002</v>
       </c>
       <c r="BF6" s="1">
-        <v>1288.690000</v>
+        <v>1288.69</v>
       </c>
       <c r="BG6" s="1">
-        <v>-220.279000</v>
+        <v>-220.279</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>15988.805422</v>
+        <v>15988.805421999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>4.441335</v>
+        <v>4.4413349999999996</v>
       </c>
       <c r="BK6" s="1">
-        <v>1358.020000</v>
+        <v>1358.02</v>
       </c>
       <c r="BL6" s="1">
-        <v>-357.221000</v>
+        <v>-357.221</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>16000.034848</v>
+        <v>16000.034847999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>4.444454</v>
+        <v>4.4444540000000003</v>
       </c>
       <c r="BP6" s="1">
-        <v>1471.780000</v>
+        <v>1471.78</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-580.573000</v>
+        <v>-580.57299999999998</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>16011.270225</v>
       </c>
       <c r="BT6" s="1">
-        <v>4.447575</v>
+        <v>4.4475749999999996</v>
       </c>
       <c r="BU6" s="1">
-        <v>1603.610000</v>
+        <v>1603.61</v>
       </c>
       <c r="BV6" s="1">
-        <v>-833.391000</v>
+        <v>-833.39099999999996</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>16022.527923</v>
       </c>
       <c r="BY6" s="1">
-        <v>4.450702</v>
+        <v>4.4507019999999997</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1755.210000</v>
+        <v>1755.21</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1108.750000</v>
+        <v>-1108.75</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>16033.731060</v>
+        <v>16033.73106</v>
       </c>
       <c r="CD6" s="1">
-        <v>4.453814</v>
+        <v>4.4538140000000004</v>
       </c>
       <c r="CE6" s="1">
-        <v>2173.460000</v>
+        <v>2173.46</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1778.970000</v>
+        <v>-1778.97</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>15861.351980</v>
+        <v>15861.351979999999</v>
       </c>
       <c r="B7" s="1">
-        <v>4.405931</v>
+        <v>4.4059309999999998</v>
       </c>
       <c r="C7" s="1">
-        <v>1141.540000</v>
+        <v>1141.54</v>
       </c>
       <c r="D7" s="1">
-        <v>-258.133000</v>
+        <v>-258.13299999999998</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>15871.753278</v>
       </c>
       <c r="G7" s="1">
-        <v>4.408820</v>
+        <v>4.4088200000000004</v>
       </c>
       <c r="H7" s="1">
-        <v>1162.830000</v>
+        <v>1162.83</v>
       </c>
       <c r="I7" s="1">
-        <v>-216.251000</v>
+        <v>-216.251</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>15882.546490</v>
+        <v>15882.546490000001</v>
       </c>
       <c r="L7" s="1">
-        <v>4.411818</v>
+        <v>4.4118180000000002</v>
       </c>
       <c r="M7" s="1">
-        <v>1189.650000</v>
+        <v>1189.6500000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-149.882000</v>
+        <v>-149.88200000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>15893.061677</v>
@@ -1811,240 +2227,240 @@
         <v>4.414739</v>
       </c>
       <c r="R7" s="1">
-        <v>1197.210000</v>
+        <v>1197.21</v>
       </c>
       <c r="S7" s="1">
-        <v>-127.599000</v>
+        <v>-127.599</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>15903.663699</v>
+        <v>15903.663699000001</v>
       </c>
       <c r="V7" s="1">
-        <v>4.417684</v>
+        <v>4.4176840000000004</v>
       </c>
       <c r="W7" s="1">
-        <v>1204.050000</v>
+        <v>1204.05</v>
       </c>
       <c r="X7" s="1">
-        <v>-106.717000</v>
+        <v>-106.717</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>15913.803409</v>
       </c>
       <c r="AA7" s="1">
-        <v>4.420501</v>
+        <v>4.4205009999999998</v>
       </c>
       <c r="AB7" s="1">
-        <v>1211.300000</v>
+        <v>1211.3</v>
       </c>
       <c r="AC7" s="1">
-        <v>-89.814200</v>
+        <v>-89.8142</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>15924.267475</v>
+        <v>15924.267475000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>4.423408</v>
+        <v>4.4234080000000002</v>
       </c>
       <c r="AG7" s="1">
-        <v>1215.720000</v>
+        <v>1215.72</v>
       </c>
       <c r="AH7" s="1">
-        <v>-85.525500</v>
+        <v>-85.525499999999994</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>15934.721686</v>
+        <v>15934.721686000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>4.426312</v>
+        <v>4.4263120000000002</v>
       </c>
       <c r="AL7" s="1">
-        <v>1222.590000</v>
+        <v>1222.5899999999999</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.071600</v>
+        <v>-89.071600000000004</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>15945.382167</v>
       </c>
       <c r="AP7" s="1">
-        <v>4.429273</v>
+        <v>4.4292730000000002</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1230.430000</v>
+        <v>1230.43</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.105000</v>
+        <v>-101.105</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>15956.425593</v>
       </c>
       <c r="AU7" s="1">
-        <v>4.432340</v>
+        <v>4.4323399999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>1240.370000</v>
+        <v>1240.3699999999999</v>
       </c>
       <c r="AW7" s="1">
-        <v>-120.553000</v>
+        <v>-120.553</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>15967.390156</v>
+        <v>15967.390155999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>4.435386</v>
+        <v>4.4353860000000003</v>
       </c>
       <c r="BA7" s="1">
-        <v>1248.780000</v>
+        <v>1248.78</v>
       </c>
       <c r="BB7" s="1">
-        <v>-138.119000</v>
+        <v>-138.119</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>15978.383027</v>
       </c>
       <c r="BE7" s="1">
-        <v>4.438440</v>
+        <v>4.4384399999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1288.710000</v>
+        <v>1288.71</v>
       </c>
       <c r="BG7" s="1">
-        <v>-220.292000</v>
+        <v>-220.292</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>15989.180398</v>
       </c>
       <c r="BJ7" s="1">
-        <v>4.441439</v>
+        <v>4.4414389999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1357.940000</v>
+        <v>1357.94</v>
       </c>
       <c r="BL7" s="1">
-        <v>-357.185000</v>
+        <v>-357.185</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>16000.458431</v>
+        <v>16000.458430999999</v>
       </c>
       <c r="BO7" s="1">
         <v>4.444572</v>
       </c>
       <c r="BP7" s="1">
-        <v>1471.790000</v>
+        <v>1471.79</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-580.621000</v>
+        <v>-580.62099999999998</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>16011.678928</v>
+        <v>16011.678927999999</v>
       </c>
       <c r="BT7" s="1">
-        <v>4.447689</v>
+        <v>4.4476889999999996</v>
       </c>
       <c r="BU7" s="1">
-        <v>1603.720000</v>
+        <v>1603.72</v>
       </c>
       <c r="BV7" s="1">
-        <v>-833.416000</v>
+        <v>-833.41600000000005</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>16022.959937</v>
       </c>
       <c r="BY7" s="1">
-        <v>4.450822</v>
+        <v>4.4508219999999996</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1755.090000</v>
+        <v>1755.09</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1108.950000</v>
+        <v>-1108.95</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>16034.249907</v>
+        <v>16034.249906999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>4.453958</v>
+        <v>4.4539580000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>2173.290000</v>
+        <v>2173.29</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1778.570000</v>
+        <v>-1778.57</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>15861.693696</v>
       </c>
       <c r="B8" s="1">
-        <v>4.406026</v>
+        <v>4.4060259999999998</v>
       </c>
       <c r="C8" s="1">
-        <v>1141.630000</v>
+        <v>1141.6300000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-258.230000</v>
+        <v>-258.23</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>15872.404329</v>
+        <v>15872.404329000001</v>
       </c>
       <c r="G8" s="1">
-        <v>4.409001</v>
+        <v>4.4090009999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>1163.100000</v>
+        <v>1163.0999999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-216.504000</v>
+        <v>-216.50399999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>15882.926458</v>
@@ -2053,43 +2469,43 @@
         <v>4.411924</v>
       </c>
       <c r="M8" s="1">
-        <v>1189.740000</v>
+        <v>1189.74</v>
       </c>
       <c r="N8" s="1">
-        <v>-149.854000</v>
+        <v>-149.85400000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>15893.455998</v>
+        <v>15893.455997999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>4.414849</v>
+        <v>4.4148490000000002</v>
       </c>
       <c r="R8" s="1">
-        <v>1197.190000</v>
+        <v>1197.19</v>
       </c>
       <c r="S8" s="1">
-        <v>-127.655000</v>
+        <v>-127.655</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>15904.015326</v>
+        <v>15904.015326000001</v>
       </c>
       <c r="V8" s="1">
-        <v>4.417782</v>
+        <v>4.4177819999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>1204.040000</v>
+        <v>1204.04</v>
       </c>
       <c r="X8" s="1">
-        <v>-106.728000</v>
+        <v>-106.72799999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>15914.153057</v>
@@ -2098,240 +2514,240 @@
         <v>4.420598</v>
       </c>
       <c r="AB8" s="1">
-        <v>1211.210000</v>
+        <v>1211.21</v>
       </c>
       <c r="AC8" s="1">
-        <v>-89.785400</v>
+        <v>-89.785399999999996</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>15924.610707</v>
       </c>
       <c r="AF8" s="1">
-        <v>4.423503</v>
+        <v>4.4235030000000002</v>
       </c>
       <c r="AG8" s="1">
-        <v>1215.670000</v>
+        <v>1215.67</v>
       </c>
       <c r="AH8" s="1">
-        <v>-85.598300</v>
+        <v>-85.598299999999995</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>15935.145733</v>
+        <v>15935.145732999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>4.426429</v>
+        <v>4.4264289999999997</v>
       </c>
       <c r="AL8" s="1">
-        <v>1222.590000</v>
+        <v>1222.5899999999999</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.028200</v>
+        <v>-89.028199999999998</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>15945.806743</v>
+        <v>15945.806742999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>4.429391</v>
+        <v>4.4293909999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1230.470000</v>
+        <v>1230.47</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.116000</v>
+        <v>-101.116</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>15956.737082</v>
       </c>
       <c r="AU8" s="1">
-        <v>4.432427</v>
+        <v>4.4324269999999997</v>
       </c>
       <c r="AV8" s="1">
-        <v>1240.350000</v>
+        <v>1240.3499999999999</v>
       </c>
       <c r="AW8" s="1">
-        <v>-120.579000</v>
+        <v>-120.57899999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>15967.740332</v>
+        <v>15967.740331999999</v>
       </c>
       <c r="AZ8" s="1">
-        <v>4.435483</v>
+        <v>4.4354829999999996</v>
       </c>
       <c r="BA8" s="1">
-        <v>1248.790000</v>
+        <v>1248.79</v>
       </c>
       <c r="BB8" s="1">
-        <v>-138.116000</v>
+        <v>-138.11600000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>15978.739115</v>
       </c>
       <c r="BE8" s="1">
-        <v>4.438539</v>
+        <v>4.4385389999999996</v>
       </c>
       <c r="BF8" s="1">
-        <v>1288.690000</v>
+        <v>1288.69</v>
       </c>
       <c r="BG8" s="1">
-        <v>-220.269000</v>
+        <v>-220.26900000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>15989.555412</v>
       </c>
       <c r="BJ8" s="1">
-        <v>4.441543</v>
+        <v>4.4415430000000002</v>
       </c>
       <c r="BK8" s="1">
-        <v>1358.080000</v>
+        <v>1358.08</v>
       </c>
       <c r="BL8" s="1">
-        <v>-357.228000</v>
+        <v>-357.22800000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>16001.272399</v>
+        <v>16001.272398999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>4.444798</v>
+        <v>4.4447979999999996</v>
       </c>
       <c r="BP8" s="1">
-        <v>1471.800000</v>
+        <v>1471.8</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-580.620000</v>
+        <v>-580.62</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>16012.535519</v>
+        <v>16012.535518999999</v>
       </c>
       <c r="BT8" s="1">
         <v>4.447927</v>
       </c>
       <c r="BU8" s="1">
-        <v>1603.730000</v>
+        <v>1603.73</v>
       </c>
       <c r="BV8" s="1">
-        <v>-833.526000</v>
+        <v>-833.52599999999995</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>16023.368145</v>
       </c>
       <c r="BY8" s="1">
-        <v>4.450936</v>
+        <v>4.4509359999999996</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1755.190000</v>
+        <v>1755.19</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1108.960000</v>
+        <v>-1108.96</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>16034.800929</v>
+        <v>16034.800929000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>4.454111</v>
+        <v>4.4541110000000002</v>
       </c>
       <c r="CE8" s="1">
-        <v>2174.940000</v>
+        <v>2174.94</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1777.430000</v>
+        <v>-1777.43</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>15862.367290</v>
+        <v>15862.36729</v>
       </c>
       <c r="B9" s="1">
-        <v>4.406213</v>
+        <v>4.4062130000000002</v>
       </c>
       <c r="C9" s="1">
-        <v>1141.390000</v>
+        <v>1141.3900000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-258.128000</v>
+        <v>-258.12799999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>15872.786215</v>
       </c>
       <c r="G9" s="1">
-        <v>4.409107</v>
+        <v>4.4091069999999997</v>
       </c>
       <c r="H9" s="1">
-        <v>1163.720000</v>
+        <v>1163.72</v>
       </c>
       <c r="I9" s="1">
-        <v>-215.964000</v>
+        <v>-215.964</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>15883.274649</v>
+        <v>15883.274649000001</v>
       </c>
       <c r="L9" s="1">
-        <v>4.412021</v>
+        <v>4.4120210000000002</v>
       </c>
       <c r="M9" s="1">
-        <v>1189.470000</v>
+        <v>1189.47</v>
       </c>
       <c r="N9" s="1">
-        <v>-149.765000</v>
+        <v>-149.76499999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>15893.804715</v>
       </c>
       <c r="Q9" s="1">
-        <v>4.414946</v>
+        <v>4.4149459999999996</v>
       </c>
       <c r="R9" s="1">
-        <v>1197.180000</v>
+        <v>1197.18</v>
       </c>
       <c r="S9" s="1">
-        <v>-127.651000</v>
+        <v>-127.651</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>15904.359054</v>
@@ -2340,43 +2756,43 @@
         <v>4.417878</v>
       </c>
       <c r="W9" s="1">
-        <v>1204.010000</v>
+        <v>1204.01</v>
       </c>
       <c r="X9" s="1">
-        <v>-106.719000</v>
+        <v>-106.71899999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>15914.566068</v>
       </c>
       <c r="AA9" s="1">
-        <v>4.420713</v>
+        <v>4.4207130000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>1211.090000</v>
+        <v>1211.0899999999999</v>
       </c>
       <c r="AC9" s="1">
-        <v>-89.888100</v>
+        <v>-89.888099999999994</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>15925.031315</v>
       </c>
       <c r="AF9" s="1">
-        <v>4.423620</v>
+        <v>4.4236199999999997</v>
       </c>
       <c r="AG9" s="1">
-        <v>1215.490000</v>
+        <v>1215.49</v>
       </c>
       <c r="AH9" s="1">
-        <v>-85.568400</v>
+        <v>-85.568399999999997</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>15935.425014</v>
@@ -2385,13 +2801,13 @@
         <v>4.426507</v>
       </c>
       <c r="AL9" s="1">
-        <v>1222.590000</v>
+        <v>1222.5899999999999</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.076000</v>
+        <v>-89.075999999999993</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>15946.178746</v>
@@ -2400,88 +2816,88 @@
         <v>4.429494</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1230.440000</v>
+        <v>1230.44</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.137000</v>
+        <v>-101.137</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>15957.103128</v>
+        <v>15957.103128000001</v>
       </c>
       <c r="AU9" s="1">
-        <v>4.432529</v>
+        <v>4.4325289999999997</v>
       </c>
       <c r="AV9" s="1">
-        <v>1240.350000</v>
+        <v>1240.3499999999999</v>
       </c>
       <c r="AW9" s="1">
-        <v>-120.553000</v>
+        <v>-120.553</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>15968.109394</v>
+        <v>15968.109393999999</v>
       </c>
       <c r="AZ9" s="1">
-        <v>4.435586</v>
+        <v>4.4355859999999998</v>
       </c>
       <c r="BA9" s="1">
-        <v>1248.750000</v>
+        <v>1248.75</v>
       </c>
       <c r="BB9" s="1">
-        <v>-138.104000</v>
+        <v>-138.10400000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>15979.431035</v>
       </c>
       <c r="BE9" s="1">
-        <v>4.438731</v>
+        <v>4.4387309999999998</v>
       </c>
       <c r="BF9" s="1">
-        <v>1288.680000</v>
+        <v>1288.68</v>
       </c>
       <c r="BG9" s="1">
-        <v>-220.305000</v>
+        <v>-220.30500000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>15990.306317</v>
       </c>
       <c r="BJ9" s="1">
-        <v>4.441752</v>
+        <v>4.4417520000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1357.990000</v>
+        <v>1357.99</v>
       </c>
       <c r="BL9" s="1">
-        <v>-357.305000</v>
+        <v>-357.30500000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>16001.690989</v>
+        <v>16001.690989000001</v>
       </c>
       <c r="BO9" s="1">
-        <v>4.444914</v>
+        <v>4.4449139999999998</v>
       </c>
       <c r="BP9" s="1">
-        <v>1471.810000</v>
+        <v>1471.81</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-580.628000</v>
+        <v>-580.62800000000004</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>16012.971502</v>
@@ -2490,165 +2906,165 @@
         <v>4.448048</v>
       </c>
       <c r="BU9" s="1">
-        <v>1603.660000</v>
+        <v>1603.66</v>
       </c>
       <c r="BV9" s="1">
-        <v>-833.508000</v>
+        <v>-833.50800000000004</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>16023.797216</v>
+        <v>16023.797216000001</v>
       </c>
       <c r="BY9" s="1">
-        <v>4.451055</v>
+        <v>4.4510550000000002</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1755.320000</v>
+        <v>1755.32</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1108.910000</v>
+        <v>-1108.9100000000001</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>16035.638588</v>
       </c>
       <c r="CD9" s="1">
-        <v>4.454344</v>
+        <v>4.4543439999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>2173.510000</v>
+        <v>2173.5100000000002</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1778.670000</v>
+        <v>-1778.67</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>15862.715980</v>
+        <v>15862.715980000001</v>
       </c>
       <c r="B10" s="1">
-        <v>4.406310</v>
+        <v>4.4063100000000004</v>
       </c>
       <c r="C10" s="1">
-        <v>1141.450000</v>
+        <v>1141.45</v>
       </c>
       <c r="D10" s="1">
-        <v>-258.309000</v>
+        <v>-258.30900000000003</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>15873.129976</v>
       </c>
       <c r="G10" s="1">
-        <v>4.409203</v>
+        <v>4.4092029999999998</v>
       </c>
       <c r="H10" s="1">
-        <v>1162.810000</v>
+        <v>1162.81</v>
       </c>
       <c r="I10" s="1">
-        <v>-216.402000</v>
+        <v>-216.40199999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>15883.621855</v>
+        <v>15883.621854999999</v>
       </c>
       <c r="L10" s="1">
-        <v>4.412117</v>
+        <v>4.4121170000000003</v>
       </c>
       <c r="M10" s="1">
-        <v>1189.530000</v>
+        <v>1189.53</v>
       </c>
       <c r="N10" s="1">
-        <v>-149.895000</v>
+        <v>-149.89500000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>15894.154889</v>
+        <v>15894.154888999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>4.415043</v>
+        <v>4.4150429999999998</v>
       </c>
       <c r="R10" s="1">
-        <v>1197.160000</v>
+        <v>1197.1600000000001</v>
       </c>
       <c r="S10" s="1">
-        <v>-127.602000</v>
+        <v>-127.602</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>15904.784621</v>
+        <v>15904.784621000001</v>
       </c>
       <c r="V10" s="1">
-        <v>4.417996</v>
+        <v>4.4179959999999996</v>
       </c>
       <c r="W10" s="1">
-        <v>1204.080000</v>
+        <v>1204.08</v>
       </c>
       <c r="X10" s="1">
-        <v>-106.751000</v>
+        <v>-106.751</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>15914.851459</v>
       </c>
       <c r="AA10" s="1">
-        <v>4.420792</v>
+        <v>4.4207919999999996</v>
       </c>
       <c r="AB10" s="1">
-        <v>1211.290000</v>
+        <v>1211.29</v>
       </c>
       <c r="AC10" s="1">
-        <v>-89.913400</v>
+        <v>-89.913399999999996</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>15925.314547</v>
       </c>
       <c r="AF10" s="1">
-        <v>4.423698</v>
+        <v>4.4236979999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1215.660000</v>
+        <v>1215.6600000000001</v>
       </c>
       <c r="AH10" s="1">
-        <v>-85.457900</v>
+        <v>-85.457899999999995</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>15935.773172</v>
+        <v>15935.773171999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>4.426604</v>
+        <v>4.4266040000000002</v>
       </c>
       <c r="AL10" s="1">
-        <v>1222.590000</v>
+        <v>1222.5899999999999</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.043600</v>
+        <v>-89.043599999999998</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>15946.473898</v>
@@ -2657,360 +3073,360 @@
         <v>4.429576</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1230.420000</v>
+        <v>1230.42</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.109000</v>
+        <v>-101.10899999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>15957.470169</v>
       </c>
       <c r="AU10" s="1">
-        <v>4.432631</v>
+        <v>4.4326309999999998</v>
       </c>
       <c r="AV10" s="1">
-        <v>1240.360000</v>
+        <v>1240.3599999999999</v>
       </c>
       <c r="AW10" s="1">
-        <v>-120.529000</v>
+        <v>-120.529</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>15968.827065</v>
+        <v>15968.827064999999</v>
       </c>
       <c r="AZ10" s="1">
-        <v>4.435785</v>
+        <v>4.4357850000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1248.770000</v>
+        <v>1248.77</v>
       </c>
       <c r="BB10" s="1">
-        <v>-138.108000</v>
+        <v>-138.108</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>15979.850190</v>
+        <v>15979.850189999999</v>
       </c>
       <c r="BE10" s="1">
         <v>4.438847</v>
       </c>
       <c r="BF10" s="1">
-        <v>1288.690000</v>
+        <v>1288.69</v>
       </c>
       <c r="BG10" s="1">
-        <v>-220.288000</v>
+        <v>-220.28800000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>15990.678812</v>
       </c>
       <c r="BJ10" s="1">
-        <v>4.441855</v>
+        <v>4.4418550000000003</v>
       </c>
       <c r="BK10" s="1">
-        <v>1357.990000</v>
+        <v>1357.99</v>
       </c>
       <c r="BL10" s="1">
-        <v>-357.203000</v>
+        <v>-357.20299999999997</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>16002.086833</v>
+        <v>16002.086832999999</v>
       </c>
       <c r="BO10" s="1">
-        <v>4.445024</v>
+        <v>4.4450240000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1471.770000</v>
+        <v>1471.77</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-580.672000</v>
+        <v>-580.67200000000003</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>16013.695165</v>
+        <v>16013.695164999999</v>
       </c>
       <c r="BT10" s="1">
-        <v>4.448249</v>
+        <v>4.4482489999999997</v>
       </c>
       <c r="BU10" s="1">
-        <v>1603.640000</v>
+        <v>1603.64</v>
       </c>
       <c r="BV10" s="1">
-        <v>-833.532000</v>
+        <v>-833.53200000000004</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>16024.512912</v>
       </c>
       <c r="BY10" s="1">
-        <v>4.451254</v>
+        <v>4.4512539999999996</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1755.300000</v>
+        <v>1755.3</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1108.940000</v>
+        <v>-1108.94</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>16035.883728</v>
+        <v>16035.883728000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>4.454412</v>
+        <v>4.4544119999999996</v>
       </c>
       <c r="CE10" s="1">
-        <v>2175.340000</v>
+        <v>2175.34</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1779.480000</v>
+        <v>-1779.48</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>15863.054213</v>
+        <v>15863.054212999999</v>
       </c>
       <c r="B11" s="1">
-        <v>4.406404</v>
+        <v>4.4064040000000002</v>
       </c>
       <c r="C11" s="1">
-        <v>1141.600000</v>
+        <v>1141.5999999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-258.229000</v>
+        <v>-258.22899999999998</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>15873.476679</v>
+        <v>15873.476678999999</v>
       </c>
       <c r="G11" s="1">
-        <v>4.409299</v>
+        <v>4.4092989999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>1162.190000</v>
+        <v>1162.19</v>
       </c>
       <c r="I11" s="1">
-        <v>-216.493000</v>
+        <v>-216.49299999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>15884.034522</v>
       </c>
       <c r="L11" s="1">
-        <v>4.412232</v>
+        <v>4.4122320000000004</v>
       </c>
       <c r="M11" s="1">
-        <v>1189.750000</v>
+        <v>1189.75</v>
       </c>
       <c r="N11" s="1">
-        <v>-149.900000</v>
+        <v>-149.9</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>15894.580426</v>
       </c>
       <c r="Q11" s="1">
-        <v>4.415161</v>
+        <v>4.4151610000000003</v>
       </c>
       <c r="R11" s="1">
-        <v>1197.150000</v>
+        <v>1197.1500000000001</v>
       </c>
       <c r="S11" s="1">
-        <v>-127.556000</v>
+        <v>-127.556</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>15905.054973</v>
       </c>
       <c r="V11" s="1">
-        <v>4.418071</v>
+        <v>4.4180710000000003</v>
       </c>
       <c r="W11" s="1">
-        <v>1204.040000</v>
+        <v>1204.04</v>
       </c>
       <c r="X11" s="1">
-        <v>-106.828000</v>
+        <v>-106.828</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>15915.202095</v>
+        <v>15915.202095000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>4.420889</v>
+        <v>4.4208889999999998</v>
       </c>
       <c r="AB11" s="1">
-        <v>1211.050000</v>
+        <v>1211.05</v>
       </c>
       <c r="AC11" s="1">
-        <v>-90.001300</v>
+        <v>-90.001300000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>15925.655282</v>
       </c>
       <c r="AF11" s="1">
-        <v>4.423793</v>
+        <v>4.4237929999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>1215.680000</v>
+        <v>1215.68</v>
       </c>
       <c r="AH11" s="1">
-        <v>-85.561900</v>
+        <v>-85.561899999999994</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>15936.121396</v>
       </c>
       <c r="AK11" s="1">
-        <v>4.426700</v>
+        <v>4.4267000000000003</v>
       </c>
       <c r="AL11" s="1">
-        <v>1222.570000</v>
+        <v>1222.57</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.031500</v>
+        <v>-89.031499999999994</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>15947.183672</v>
+        <v>15947.183671999999</v>
       </c>
       <c r="AP11" s="1">
         <v>4.429773</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1230.440000</v>
+        <v>1230.44</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.120000</v>
+        <v>-101.12</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>15958.196808</v>
+        <v>15958.196808000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>4.432832</v>
+        <v>4.4328320000000003</v>
       </c>
       <c r="AV11" s="1">
-        <v>1240.360000</v>
+        <v>1240.3599999999999</v>
       </c>
       <c r="AW11" s="1">
-        <v>-120.568000</v>
+        <v>-120.568</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>15969.185671</v>
+        <v>15969.185670999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>4.435885</v>
+        <v>4.4358849999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1248.760000</v>
+        <v>1248.76</v>
       </c>
       <c r="BB11" s="1">
-        <v>-138.092000</v>
+        <v>-138.09200000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>15980.210251</v>
       </c>
       <c r="BE11" s="1">
-        <v>4.438947</v>
+        <v>4.4389469999999998</v>
       </c>
       <c r="BF11" s="1">
-        <v>1288.730000</v>
+        <v>1288.73</v>
       </c>
       <c r="BG11" s="1">
-        <v>-220.320000</v>
+        <v>-220.32</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>15991.057291</v>
+        <v>15991.057290999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>4.441960</v>
+        <v>4.4419599999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1358.070000</v>
+        <v>1358.07</v>
       </c>
       <c r="BL11" s="1">
-        <v>-357.219000</v>
+        <v>-357.21899999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>16002.825870</v>
+        <v>16002.825870000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>4.445229</v>
+        <v>4.4452290000000003</v>
       </c>
       <c r="BP11" s="1">
-        <v>1471.800000</v>
+        <v>1471.8</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-580.659000</v>
+        <v>-580.65899999999999</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>16013.813214</v>
       </c>
       <c r="BT11" s="1">
-        <v>4.448281</v>
+        <v>4.4482809999999997</v>
       </c>
       <c r="BU11" s="1">
-        <v>1603.730000</v>
+        <v>1603.73</v>
       </c>
       <c r="BV11" s="1">
-        <v>-833.510000</v>
+        <v>-833.51</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>16024.661215</v>
@@ -3019,467 +3435,467 @@
         <v>4.451295</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1755.190000</v>
+        <v>1755.19</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1108.740000</v>
+        <v>-1108.74</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>16036.417428</v>
+        <v>16036.417428000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>4.454560</v>
+        <v>4.4545599999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>2175.080000</v>
+        <v>2175.08</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1777.450000</v>
+        <v>-1777.45</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>15863.403398</v>
       </c>
       <c r="B12" s="1">
-        <v>4.406501</v>
+        <v>4.4065009999999996</v>
       </c>
       <c r="C12" s="1">
-        <v>1141.810000</v>
+        <v>1141.81</v>
       </c>
       <c r="D12" s="1">
-        <v>-258.115000</v>
+        <v>-258.11500000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>15873.893782</v>
+        <v>15873.893781999999</v>
       </c>
       <c r="G12" s="1">
-        <v>4.409415</v>
+        <v>4.4094150000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>1162.930000</v>
+        <v>1162.93</v>
       </c>
       <c r="I12" s="1">
-        <v>-216.134000</v>
+        <v>-216.13399999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>15884.325640</v>
+        <v>15884.325639999999</v>
       </c>
       <c r="L12" s="1">
-        <v>4.412313</v>
+        <v>4.4123130000000002</v>
       </c>
       <c r="M12" s="1">
-        <v>1189.930000</v>
+        <v>1189.93</v>
       </c>
       <c r="N12" s="1">
-        <v>-149.721000</v>
+        <v>-149.721</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>15894.858222</v>
+        <v>15894.858222000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>4.415238</v>
+        <v>4.4152380000000004</v>
       </c>
       <c r="R12" s="1">
-        <v>1197.170000</v>
+        <v>1197.17</v>
       </c>
       <c r="S12" s="1">
-        <v>-127.589000</v>
+        <v>-127.589</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>15905.397713</v>
       </c>
       <c r="V12" s="1">
-        <v>4.418166</v>
+        <v>4.4181660000000003</v>
       </c>
       <c r="W12" s="1">
-        <v>1204.110000</v>
+        <v>1204.1099999999999</v>
       </c>
       <c r="X12" s="1">
-        <v>-106.721000</v>
+        <v>-106.721</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>15915.549791</v>
+        <v>15915.549790999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>4.420986</v>
+        <v>4.4209860000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>1211.290000</v>
+        <v>1211.29</v>
       </c>
       <c r="AC12" s="1">
-        <v>-89.923500</v>
+        <v>-89.923500000000004</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>15926.000002</v>
+        <v>15926.000002000001</v>
       </c>
       <c r="AF12" s="1">
         <v>4.423889</v>
       </c>
       <c r="AG12" s="1">
-        <v>1215.960000</v>
+        <v>1215.96</v>
       </c>
       <c r="AH12" s="1">
-        <v>-85.464700</v>
+        <v>-85.464699999999993</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>15936.819234</v>
+        <v>15936.819234000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>4.426894</v>
+        <v>4.4268939999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1222.610000</v>
+        <v>1222.6099999999999</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.056300</v>
+        <v>-89.056299999999993</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>15947.544726</v>
       </c>
       <c r="AP12" s="1">
-        <v>4.429874</v>
+        <v>4.4298739999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1230.430000</v>
+        <v>1230.43</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.114000</v>
+        <v>-101.114</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>15958.563847</v>
+        <v>15958.563846999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>4.432934</v>
+        <v>4.4329340000000004</v>
       </c>
       <c r="AV12" s="1">
-        <v>1240.360000</v>
+        <v>1240.3599999999999</v>
       </c>
       <c r="AW12" s="1">
-        <v>-120.563000</v>
+        <v>-120.563</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>15969.543785</v>
       </c>
       <c r="AZ12" s="1">
-        <v>4.435984</v>
+        <v>4.4359840000000004</v>
       </c>
       <c r="BA12" s="1">
-        <v>1248.730000</v>
+        <v>1248.73</v>
       </c>
       <c r="BB12" s="1">
-        <v>-138.099000</v>
+        <v>-138.09899999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>15980.875880</v>
+        <v>15980.87588</v>
       </c>
       <c r="BE12" s="1">
-        <v>4.439132</v>
+        <v>4.4391319999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1288.680000</v>
+        <v>1288.68</v>
       </c>
       <c r="BG12" s="1">
-        <v>-220.282000</v>
+        <v>-220.28200000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>15991.741743</v>
       </c>
       <c r="BJ12" s="1">
-        <v>4.442150</v>
+        <v>4.4421499999999998</v>
       </c>
       <c r="BK12" s="1">
-        <v>1358.000000</v>
+        <v>1358</v>
       </c>
       <c r="BL12" s="1">
-        <v>-357.183000</v>
+        <v>-357.18299999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>16003.328812</v>
       </c>
       <c r="BO12" s="1">
-        <v>4.445369</v>
+        <v>4.4453690000000003</v>
       </c>
       <c r="BP12" s="1">
-        <v>1471.810000</v>
+        <v>1471.81</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-580.635000</v>
+        <v>-580.63499999999999</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>16014.251180</v>
+        <v>16014.251179999999</v>
       </c>
       <c r="BT12" s="1">
-        <v>4.448403</v>
+        <v>4.4484029999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1603.610000</v>
+        <v>1603.61</v>
       </c>
       <c r="BV12" s="1">
-        <v>-833.548000</v>
+        <v>-833.548</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>16025.083806</v>
+        <v>16025.083806000001</v>
       </c>
       <c r="BY12" s="1">
-        <v>4.451412</v>
+        <v>4.4514120000000004</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1755.010000</v>
+        <v>1755.01</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1108.860000</v>
+        <v>-1108.8599999999999</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>16036.960046</v>
       </c>
       <c r="CD12" s="1">
-        <v>4.454711</v>
+        <v>4.4547109999999996</v>
       </c>
       <c r="CE12" s="1">
-        <v>2173.640000</v>
+        <v>2173.64</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1779.390000</v>
+        <v>-1779.39</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>15863.862692</v>
+        <v>15863.862692000001</v>
       </c>
       <c r="B13" s="1">
-        <v>4.406629</v>
+        <v>4.4066289999999997</v>
       </c>
       <c r="C13" s="1">
-        <v>1141.600000</v>
+        <v>1141.5999999999999</v>
       </c>
       <c r="D13" s="1">
-        <v>-258.119000</v>
+        <v>-258.11900000000003</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>15874.181494</v>
       </c>
       <c r="G13" s="1">
-        <v>4.409495</v>
+        <v>4.4094949999999997</v>
       </c>
       <c r="H13" s="1">
-        <v>1162.620000</v>
+        <v>1162.6199999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-216.660000</v>
+        <v>-216.66</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>15884.672840</v>
+        <v>15884.672839999999</v>
       </c>
       <c r="L13" s="1">
-        <v>4.412409</v>
+        <v>4.4124090000000002</v>
       </c>
       <c r="M13" s="1">
-        <v>1189.590000</v>
+        <v>1189.5899999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-149.660000</v>
+        <v>-149.66</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>15895.206906</v>
+        <v>15895.206905999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>4.415335</v>
+        <v>4.4153349999999998</v>
       </c>
       <c r="R13" s="1">
-        <v>1197.180000</v>
+        <v>1197.18</v>
       </c>
       <c r="S13" s="1">
-        <v>-127.582000</v>
+        <v>-127.58199999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>15905.740934</v>
+        <v>15905.740933999999</v>
       </c>
       <c r="V13" s="1">
-        <v>4.418261</v>
+        <v>4.4182610000000002</v>
       </c>
       <c r="W13" s="1">
-        <v>1204.090000</v>
+        <v>1204.0899999999999</v>
       </c>
       <c r="X13" s="1">
-        <v>-106.763000</v>
+        <v>-106.76300000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>15916.243199</v>
       </c>
       <c r="AA13" s="1">
-        <v>4.421179</v>
+        <v>4.4211790000000004</v>
       </c>
       <c r="AB13" s="1">
-        <v>1211.230000</v>
+        <v>1211.23</v>
       </c>
       <c r="AC13" s="1">
-        <v>-89.897900</v>
+        <v>-89.897900000000007</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>15926.684517</v>
       </c>
       <c r="AF13" s="1">
-        <v>4.424079</v>
+        <v>4.4240789999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>1215.710000</v>
+        <v>1215.71</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.631400</v>
+        <v>-85.631399999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>15937.168418</v>
+        <v>15937.168417999999</v>
       </c>
       <c r="AK13" s="1">
-        <v>4.426991</v>
+        <v>4.4269910000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>1222.590000</v>
+        <v>1222.5899999999999</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.047900</v>
+        <v>-89.047899999999998</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>15947.904858</v>
       </c>
       <c r="AP13" s="1">
-        <v>4.429974</v>
+        <v>4.4299739999999996</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1230.440000</v>
+        <v>1230.44</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.117000</v>
+        <v>-101.117</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>15958.928912</v>
+        <v>15958.928911999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>4.433036</v>
+        <v>4.4330360000000004</v>
       </c>
       <c r="AV13" s="1">
-        <v>1240.360000</v>
+        <v>1240.3599999999999</v>
       </c>
       <c r="AW13" s="1">
-        <v>-120.545000</v>
+        <v>-120.545</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>15970.206967</v>
       </c>
       <c r="AZ13" s="1">
-        <v>4.436169</v>
+        <v>4.4361689999999996</v>
       </c>
       <c r="BA13" s="1">
-        <v>1248.750000</v>
+        <v>1248.75</v>
       </c>
       <c r="BB13" s="1">
-        <v>-138.091000</v>
+        <v>-138.09100000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>15981.316824</v>
       </c>
       <c r="BE13" s="1">
-        <v>4.439255</v>
+        <v>4.4392550000000002</v>
       </c>
       <c r="BF13" s="1">
-        <v>1288.690000</v>
+        <v>1288.69</v>
       </c>
       <c r="BG13" s="1">
-        <v>-220.280000</v>
+        <v>-220.28</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>15992.180734</v>
@@ -3488,90 +3904,90 @@
         <v>4.442272</v>
       </c>
       <c r="BK13" s="1">
-        <v>1358.080000</v>
+        <v>1358.08</v>
       </c>
       <c r="BL13" s="1">
-        <v>-357.258000</v>
+        <v>-357.25799999999998</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>16003.746445</v>
+        <v>16003.746445000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>4.445485</v>
+        <v>4.4454849999999997</v>
       </c>
       <c r="BP13" s="1">
-        <v>1471.800000</v>
+        <v>1471.8</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-580.653000</v>
+        <v>-580.65300000000002</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>16014.678236</v>
       </c>
       <c r="BT13" s="1">
-        <v>4.448522</v>
+        <v>4.4485219999999996</v>
       </c>
       <c r="BU13" s="1">
-        <v>1603.660000</v>
+        <v>1603.66</v>
       </c>
       <c r="BV13" s="1">
-        <v>-833.612000</v>
+        <v>-833.61199999999997</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>16025.507421</v>
       </c>
       <c r="BY13" s="1">
-        <v>4.451530</v>
+        <v>4.45153</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1755.110000</v>
+        <v>1755.11</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1109.000000</v>
+        <v>-1109</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>16037.498174</v>
       </c>
       <c r="CD13" s="1">
-        <v>4.454861</v>
+        <v>4.4548610000000002</v>
       </c>
       <c r="CE13" s="1">
-        <v>2176.030000</v>
+        <v>2176.0300000000002</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1778.550000</v>
+        <v>-1778.55</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>15864.102259</v>
+        <v>15864.102258999999</v>
       </c>
       <c r="B14" s="1">
         <v>4.406695</v>
       </c>
       <c r="C14" s="1">
-        <v>1141.730000</v>
+        <v>1141.73</v>
       </c>
       <c r="D14" s="1">
-        <v>-258.015000</v>
+        <v>-258.01499999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>15874.529655</v>
@@ -3580,73 +3996,73 @@
         <v>4.409592</v>
       </c>
       <c r="H14" s="1">
-        <v>1162.920000</v>
+        <v>1162.92</v>
       </c>
       <c r="I14" s="1">
-        <v>-216.556000</v>
+        <v>-216.55600000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>15885.018806</v>
       </c>
       <c r="L14" s="1">
-        <v>4.412505</v>
+        <v>4.4125050000000003</v>
       </c>
       <c r="M14" s="1">
-        <v>1189.720000</v>
+        <v>1189.72</v>
       </c>
       <c r="N14" s="1">
-        <v>-149.946000</v>
+        <v>-149.946</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>15895.560025</v>
+        <v>15895.560025000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>4.415433</v>
+        <v>4.4154330000000002</v>
       </c>
       <c r="R14" s="1">
-        <v>1197.190000</v>
+        <v>1197.19</v>
       </c>
       <c r="S14" s="1">
-        <v>-127.645000</v>
+        <v>-127.645</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>15906.425915</v>
       </c>
       <c r="V14" s="1">
-        <v>4.418452</v>
+        <v>4.4184520000000003</v>
       </c>
       <c r="W14" s="1">
-        <v>1204.110000</v>
+        <v>1204.1099999999999</v>
       </c>
       <c r="X14" s="1">
-        <v>-106.845000</v>
+        <v>-106.845</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>15916.594366</v>
+        <v>15916.594365999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>4.421276</v>
+        <v>4.4212759999999998</v>
       </c>
       <c r="AB14" s="1">
-        <v>1211.250000</v>
+        <v>1211.25</v>
       </c>
       <c r="AC14" s="1">
-        <v>-89.872200</v>
+        <v>-89.872200000000007</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>15927.030687</v>
@@ -3655,240 +4071,240 @@
         <v>4.424175</v>
       </c>
       <c r="AG14" s="1">
-        <v>1215.730000</v>
+        <v>1215.73</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.544400</v>
+        <v>-85.544399999999996</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>15937.515617</v>
+        <v>15937.515616999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>4.427088</v>
+        <v>4.4270880000000004</v>
       </c>
       <c r="AL14" s="1">
-        <v>1222.600000</v>
+        <v>1222.5999999999999</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.068200</v>
+        <v>-89.068200000000004</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>15948.578897</v>
+        <v>15948.578896999999</v>
       </c>
       <c r="AP14" s="1">
         <v>4.430161</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1230.410000</v>
+        <v>1230.4100000000001</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.088000</v>
+        <v>-101.08799999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>15959.605941</v>
       </c>
       <c r="AU14" s="1">
-        <v>4.433224</v>
+        <v>4.4332240000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1240.350000</v>
+        <v>1240.3499999999999</v>
       </c>
       <c r="AW14" s="1">
-        <v>-120.557000</v>
+        <v>-120.557</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>15970.616630</v>
+        <v>15970.61663</v>
       </c>
       <c r="AZ14" s="1">
-        <v>4.436282</v>
+        <v>4.4362820000000003</v>
       </c>
       <c r="BA14" s="1">
-        <v>1248.710000</v>
+        <v>1248.71</v>
       </c>
       <c r="BB14" s="1">
-        <v>-138.112000</v>
+        <v>-138.11199999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>15981.680400</v>
+        <v>15981.680399999999</v>
       </c>
       <c r="BE14" s="1">
-        <v>4.439356</v>
+        <v>4.4393560000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1288.720000</v>
+        <v>1288.72</v>
       </c>
       <c r="BG14" s="1">
-        <v>-220.274000</v>
+        <v>-220.274</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>15992.556665</v>
       </c>
       <c r="BJ14" s="1">
-        <v>4.442377</v>
+        <v>4.4423769999999996</v>
       </c>
       <c r="BK14" s="1">
-        <v>1358.030000</v>
+        <v>1358.03</v>
       </c>
       <c r="BL14" s="1">
-        <v>-357.261000</v>
+        <v>-357.26100000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>16004.145689</v>
+        <v>16004.145689000001</v>
       </c>
       <c r="BO14" s="1">
-        <v>4.445596</v>
+        <v>4.4455960000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1471.780000</v>
+        <v>1471.78</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-580.658000</v>
+        <v>-580.65800000000002</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>16015.096892</v>
       </c>
       <c r="BT14" s="1">
-        <v>4.448638</v>
+        <v>4.4486379999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1603.620000</v>
+        <v>1603.62</v>
       </c>
       <c r="BV14" s="1">
-        <v>-833.587000</v>
+        <v>-833.58699999999999</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>16025.929485</v>
+        <v>16025.929485000001</v>
       </c>
       <c r="BY14" s="1">
-        <v>4.451647</v>
+        <v>4.4516470000000004</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1755.120000</v>
+        <v>1755.12</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1108.950000</v>
+        <v>-1108.95</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>16038.038568</v>
       </c>
       <c r="CD14" s="1">
-        <v>4.455011</v>
+        <v>4.4550109999999998</v>
       </c>
       <c r="CE14" s="1">
-        <v>2173.270000</v>
+        <v>2173.27</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1777.900000</v>
+        <v>-1777.9</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>15864.444035</v>
       </c>
       <c r="B15" s="1">
-        <v>4.406790</v>
+        <v>4.40679</v>
       </c>
       <c r="C15" s="1">
-        <v>1141.500000</v>
+        <v>1141.5</v>
       </c>
       <c r="D15" s="1">
-        <v>-258.009000</v>
+        <v>-258.00900000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>15874.873380</v>
+        <v>15874.873380000001</v>
       </c>
       <c r="G15" s="1">
-        <v>4.409687</v>
+        <v>4.4096869999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1162.490000</v>
+        <v>1162.49</v>
       </c>
       <c r="I15" s="1">
-        <v>-216.116000</v>
+        <v>-216.11600000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>15885.709974</v>
+        <v>15885.709973999999</v>
       </c>
       <c r="L15" s="1">
-        <v>4.412697</v>
+        <v>4.4126969999999996</v>
       </c>
       <c r="M15" s="1">
-        <v>1189.670000</v>
+        <v>1189.67</v>
       </c>
       <c r="N15" s="1">
-        <v>-149.617000</v>
+        <v>-149.61699999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>15896.256905</v>
       </c>
       <c r="Q15" s="1">
-        <v>4.415627</v>
+        <v>4.4156269999999997</v>
       </c>
       <c r="R15" s="1">
-        <v>1197.150000</v>
+        <v>1197.1500000000001</v>
       </c>
       <c r="S15" s="1">
-        <v>-127.661000</v>
+        <v>-127.661</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>15906.774570</v>
+        <v>15906.77457</v>
       </c>
       <c r="V15" s="1">
-        <v>4.418548</v>
+        <v>4.4185480000000004</v>
       </c>
       <c r="W15" s="1">
-        <v>1204.150000</v>
+        <v>1204.1500000000001</v>
       </c>
       <c r="X15" s="1">
-        <v>-106.795000</v>
+        <v>-106.795</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>15916.941566</v>
@@ -3897,195 +4313,195 @@
         <v>4.421373</v>
       </c>
       <c r="AB15" s="1">
-        <v>1210.990000</v>
+        <v>1210.99</v>
       </c>
       <c r="AC15" s="1">
-        <v>-89.946300</v>
+        <v>-89.946299999999994</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>15927.373919</v>
       </c>
       <c r="AF15" s="1">
-        <v>4.424271</v>
+        <v>4.4242710000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>1215.650000</v>
+        <v>1215.6500000000001</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.521100</v>
+        <v>-85.521100000000004</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>15938.170871</v>
       </c>
       <c r="AK15" s="1">
-        <v>4.427270</v>
+        <v>4.42727</v>
       </c>
       <c r="AL15" s="1">
-        <v>1222.590000</v>
+        <v>1222.5899999999999</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.032600</v>
+        <v>-89.032600000000002</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>15948.984611</v>
       </c>
       <c r="AP15" s="1">
-        <v>4.430274</v>
+        <v>4.4302739999999998</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1230.440000</v>
+        <v>1230.44</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.120000</v>
+        <v>-101.12</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>15960.020132</v>
       </c>
       <c r="AU15" s="1">
-        <v>4.433339</v>
+        <v>4.4333390000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1240.350000</v>
+        <v>1240.3499999999999</v>
       </c>
       <c r="AW15" s="1">
-        <v>-120.542000</v>
+        <v>-120.542</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>15971.003510</v>
+        <v>15971.00351</v>
       </c>
       <c r="AZ15" s="1">
-        <v>4.436390</v>
+        <v>4.4363900000000003</v>
       </c>
       <c r="BA15" s="1">
-        <v>1248.740000</v>
+        <v>1248.74</v>
       </c>
       <c r="BB15" s="1">
-        <v>-138.089000</v>
+        <v>-138.089</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>15982.039032</v>
+        <v>15982.039032000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>4.439455</v>
+        <v>4.4394549999999997</v>
       </c>
       <c r="BF15" s="1">
-        <v>1288.680000</v>
+        <v>1288.68</v>
       </c>
       <c r="BG15" s="1">
-        <v>-220.300000</v>
+        <v>-220.3</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>15992.936601</v>
+        <v>15992.936600999999</v>
       </c>
       <c r="BJ15" s="1">
         <v>4.442482</v>
       </c>
       <c r="BK15" s="1">
-        <v>1358.090000</v>
+        <v>1358.09</v>
       </c>
       <c r="BL15" s="1">
-        <v>-357.238000</v>
+        <v>-357.238</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>16004.566793</v>
       </c>
       <c r="BO15" s="1">
-        <v>4.445713</v>
+        <v>4.4457129999999996</v>
       </c>
       <c r="BP15" s="1">
-        <v>1471.800000</v>
+        <v>1471.8</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-580.635000</v>
+        <v>-580.63499999999999</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>16015.520966</v>
       </c>
       <c r="BT15" s="1">
-        <v>4.448756</v>
+        <v>4.4487560000000004</v>
       </c>
       <c r="BU15" s="1">
-        <v>1603.690000</v>
+        <v>1603.69</v>
       </c>
       <c r="BV15" s="1">
-        <v>-833.626000</v>
+        <v>-833.62599999999998</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>16026.372730</v>
+        <v>16026.372729999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>4.451770</v>
+        <v>4.4517699999999998</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1755.200000</v>
+        <v>1755.2</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1108.950000</v>
+        <v>-1108.95</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>16038.577500</v>
+        <v>16038.577499999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>4.455160</v>
+        <v>4.4551600000000002</v>
       </c>
       <c r="CE15" s="1">
-        <v>2175.070000</v>
+        <v>2175.0700000000002</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1779.530000</v>
+        <v>-1779.53</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>15865.126034</v>
+        <v>15865.126034000001</v>
       </c>
       <c r="B16" s="1">
-        <v>4.406979</v>
+        <v>4.4069789999999998</v>
       </c>
       <c r="C16" s="1">
-        <v>1141.700000</v>
+        <v>1141.7</v>
       </c>
       <c r="D16" s="1">
-        <v>-258.186000</v>
+        <v>-258.18599999999998</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>15875.560867</v>
@@ -4094,587 +4510,587 @@
         <v>4.409878</v>
       </c>
       <c r="H16" s="1">
-        <v>1163.010000</v>
+        <v>1163.01</v>
       </c>
       <c r="I16" s="1">
-        <v>-216.344000</v>
+        <v>-216.34399999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>15886.054731</v>
       </c>
       <c r="L16" s="1">
-        <v>4.412793</v>
+        <v>4.4127929999999997</v>
       </c>
       <c r="M16" s="1">
-        <v>1189.710000</v>
+        <v>1189.71</v>
       </c>
       <c r="N16" s="1">
-        <v>-150.024000</v>
+        <v>-150.024</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>15896.675032</v>
+        <v>15896.675031999999</v>
       </c>
       <c r="Q16" s="1">
         <v>4.415743</v>
       </c>
       <c r="R16" s="1">
-        <v>1197.120000</v>
+        <v>1197.1199999999999</v>
       </c>
       <c r="S16" s="1">
-        <v>-127.621000</v>
+        <v>-127.621</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>15907.115818</v>
       </c>
       <c r="V16" s="1">
-        <v>4.418643</v>
+        <v>4.4186430000000003</v>
       </c>
       <c r="W16" s="1">
-        <v>1204.140000</v>
+        <v>1204.1400000000001</v>
       </c>
       <c r="X16" s="1">
-        <v>-106.836000</v>
+        <v>-106.836</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>15917.593805</v>
       </c>
       <c r="AA16" s="1">
-        <v>4.421554</v>
+        <v>4.4215540000000004</v>
       </c>
       <c r="AB16" s="1">
-        <v>1211.140000</v>
+        <v>1211.1400000000001</v>
       </c>
       <c r="AC16" s="1">
-        <v>-89.972800</v>
+        <v>-89.972800000000007</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>15928.027678</v>
       </c>
       <c r="AF16" s="1">
-        <v>4.424452</v>
+        <v>4.4244519999999996</v>
       </c>
       <c r="AG16" s="1">
-        <v>1215.670000</v>
+        <v>1215.67</v>
       </c>
       <c r="AH16" s="1">
-        <v>-85.284800</v>
+        <v>-85.284800000000004</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>15938.561680</v>
+        <v>15938.561680000001</v>
       </c>
       <c r="AK16" s="1">
         <v>4.427378</v>
       </c>
       <c r="AL16" s="1">
-        <v>1222.590000</v>
+        <v>1222.5899999999999</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.034300</v>
+        <v>-89.034300000000002</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>15949.368050</v>
+        <v>15949.368049999999</v>
       </c>
       <c r="AP16" s="1">
-        <v>4.430380</v>
+        <v>4.4303800000000004</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1230.440000</v>
+        <v>1230.44</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.111000</v>
+        <v>-101.111</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>15960.384163</v>
+        <v>15960.384163000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>4.433440</v>
+        <v>4.43344</v>
       </c>
       <c r="AV16" s="1">
-        <v>1240.340000</v>
+        <v>1240.3399999999999</v>
       </c>
       <c r="AW16" s="1">
-        <v>-120.550000</v>
+        <v>-120.55</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>15971.364102</v>
       </c>
       <c r="AZ16" s="1">
-        <v>4.436490</v>
+        <v>4.43649</v>
       </c>
       <c r="BA16" s="1">
-        <v>1248.740000</v>
+        <v>1248.74</v>
       </c>
       <c r="BB16" s="1">
-        <v>-138.114000</v>
+        <v>-138.114</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>15982.450217</v>
       </c>
       <c r="BE16" s="1">
-        <v>4.439570</v>
+        <v>4.4395699999999998</v>
       </c>
       <c r="BF16" s="1">
-        <v>1288.700000</v>
+        <v>1288.7</v>
       </c>
       <c r="BG16" s="1">
-        <v>-220.257000</v>
+        <v>-220.25700000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>15993.352249</v>
       </c>
       <c r="BJ16" s="1">
-        <v>4.442598</v>
+        <v>4.4425980000000003</v>
       </c>
       <c r="BK16" s="1">
-        <v>1358.030000</v>
+        <v>1358.03</v>
       </c>
       <c r="BL16" s="1">
-        <v>-357.302000</v>
+        <v>-357.30200000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>16004.961114</v>
       </c>
       <c r="BO16" s="1">
-        <v>4.445823</v>
+        <v>4.4458229999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1471.800000</v>
+        <v>1471.8</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-580.612000</v>
+        <v>-580.61199999999997</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>16015.950005</v>
+        <v>16015.950005000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>4.448875</v>
+        <v>4.4488750000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1603.620000</v>
+        <v>1603.62</v>
       </c>
       <c r="BV16" s="1">
-        <v>-833.615000</v>
+        <v>-833.61500000000001</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>16026.803932</v>
+        <v>16026.803932000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>4.451890</v>
+        <v>4.4518899999999997</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1755.150000</v>
+        <v>1755.15</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1108.790000</v>
+        <v>-1108.79</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>16039.117115</v>
+        <v>16039.117114999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>4.455310</v>
+        <v>4.4553099999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>2175.290000</v>
+        <v>2175.29</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1777.270000</v>
+        <v>-1777.27</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>15865.473697</v>
+        <v>15865.473696999999</v>
       </c>
       <c r="B17" s="1">
         <v>4.407076</v>
       </c>
       <c r="C17" s="1">
-        <v>1141.570000</v>
+        <v>1141.57</v>
       </c>
       <c r="D17" s="1">
-        <v>-258.170000</v>
+        <v>-258.17</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>15875.907076</v>
       </c>
       <c r="G17" s="1">
-        <v>4.409974</v>
+        <v>4.4099740000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>1162.780000</v>
+        <v>1162.78</v>
       </c>
       <c r="I17" s="1">
-        <v>-216.177000</v>
+        <v>-216.17699999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>15886.402064</v>
       </c>
       <c r="L17" s="1">
-        <v>4.412889</v>
+        <v>4.4128889999999998</v>
       </c>
       <c r="M17" s="1">
-        <v>1189.450000</v>
+        <v>1189.45</v>
       </c>
       <c r="N17" s="1">
-        <v>-149.586000</v>
+        <v>-149.58600000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>15897.270727</v>
+        <v>15897.270726999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>4.415909</v>
+        <v>4.4159090000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>1197.200000</v>
+        <v>1197.2</v>
       </c>
       <c r="S17" s="1">
-        <v>-127.567000</v>
+        <v>-127.56699999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>15907.768057</v>
+        <v>15907.768056999999</v>
       </c>
       <c r="V17" s="1">
-        <v>4.418824</v>
+        <v>4.4188239999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>1204.130000</v>
+        <v>1204.1300000000001</v>
       </c>
       <c r="X17" s="1">
-        <v>-106.757000</v>
+        <v>-106.75700000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>15917.987628</v>
+        <v>15917.987628000001</v>
       </c>
       <c r="AA17" s="1">
-        <v>4.421663</v>
+        <v>4.4216629999999997</v>
       </c>
       <c r="AB17" s="1">
-        <v>1211.130000</v>
+        <v>1211.1300000000001</v>
       </c>
       <c r="AC17" s="1">
-        <v>-89.865400</v>
+        <v>-89.865399999999994</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>15928.406094</v>
       </c>
       <c r="AF17" s="1">
-        <v>4.424557</v>
+        <v>4.4245570000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1215.470000</v>
+        <v>1215.47</v>
       </c>
       <c r="AH17" s="1">
-        <v>-85.586300</v>
+        <v>-85.586299999999994</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>15938.910896</v>
+        <v>15938.910895999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>4.427475</v>
+        <v>4.4274750000000003</v>
       </c>
       <c r="AL17" s="1">
-        <v>1222.580000</v>
+        <v>1222.58</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.048500</v>
+        <v>-89.048500000000004</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>15949.727160</v>
+        <v>15949.72716</v>
       </c>
       <c r="AP17" s="1">
-        <v>4.430480</v>
+        <v>4.4304800000000002</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1230.420000</v>
+        <v>1230.42</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.123000</v>
+        <v>-101.123</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>15960.751240</v>
+        <v>15960.75124</v>
       </c>
       <c r="AU17" s="1">
-        <v>4.433542</v>
+        <v>4.4335420000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1240.350000</v>
+        <v>1240.3499999999999</v>
       </c>
       <c r="AW17" s="1">
-        <v>-120.558000</v>
+        <v>-120.55800000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>15971.785237</v>
       </c>
       <c r="AZ17" s="1">
-        <v>4.436607</v>
+        <v>4.4366070000000004</v>
       </c>
       <c r="BA17" s="1">
-        <v>1248.760000</v>
+        <v>1248.76</v>
       </c>
       <c r="BB17" s="1">
-        <v>-138.110000</v>
+        <v>-138.11000000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>15982.763688</v>
+        <v>15982.763687999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>4.439657</v>
+        <v>4.4396570000000004</v>
       </c>
       <c r="BF17" s="1">
-        <v>1288.680000</v>
+        <v>1288.68</v>
       </c>
       <c r="BG17" s="1">
-        <v>-220.304000</v>
+        <v>-220.304</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>15993.711880</v>
+        <v>15993.711880000001</v>
       </c>
       <c r="BJ17" s="1">
         <v>4.442698</v>
       </c>
       <c r="BK17" s="1">
-        <v>1357.990000</v>
+        <v>1357.99</v>
       </c>
       <c r="BL17" s="1">
-        <v>-357.273000</v>
+        <v>-357.27300000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>16005.381752</v>
+        <v>16005.381751999999</v>
       </c>
       <c r="BO17" s="1">
-        <v>4.445939</v>
+        <v>4.4459390000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1471.780000</v>
+        <v>1471.78</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-580.643000</v>
+        <v>-580.64300000000003</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>16016.364137</v>
       </c>
       <c r="BT17" s="1">
-        <v>4.448990</v>
+        <v>4.4489900000000002</v>
       </c>
       <c r="BU17" s="1">
-        <v>1603.650000</v>
+        <v>1603.65</v>
       </c>
       <c r="BV17" s="1">
-        <v>-833.595000</v>
+        <v>-833.59500000000003</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>16027.218619</v>
+        <v>16027.218618999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>4.452005</v>
+        <v>4.4520049999999998</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1755.050000</v>
+        <v>1755.05</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1108.990000</v>
+        <v>-1108.99</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>16039.657783</v>
+        <v>16039.657783000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>4.455460</v>
+        <v>4.4554600000000004</v>
       </c>
       <c r="CE17" s="1">
-        <v>2173.540000</v>
+        <v>2173.54</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1779.130000</v>
+        <v>-1779.13</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>15865.815473</v>
+        <v>15865.815473000001</v>
       </c>
       <c r="B18" s="1">
-        <v>4.407171</v>
+        <v>4.4071709999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1141.380000</v>
+        <v>1141.3800000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-258.001000</v>
+        <v>-258.00099999999998</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>15876.251764</v>
+        <v>15876.251764000001</v>
       </c>
       <c r="G18" s="1">
-        <v>4.410070</v>
+        <v>4.4100700000000002</v>
       </c>
       <c r="H18" s="1">
-        <v>1162.810000</v>
+        <v>1162.81</v>
       </c>
       <c r="I18" s="1">
-        <v>-216.212000</v>
+        <v>-216.21199999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>15887.057140</v>
+        <v>15887.057140000001</v>
       </c>
       <c r="L18" s="1">
-        <v>4.413071</v>
+        <v>4.4130710000000004</v>
       </c>
       <c r="M18" s="1">
-        <v>1189.990000</v>
+        <v>1189.99</v>
       </c>
       <c r="N18" s="1">
-        <v>-149.642000</v>
+        <v>-149.642</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>15897.658598</v>
       </c>
       <c r="Q18" s="1">
-        <v>4.416016</v>
+        <v>4.4160159999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>1197.210000</v>
+        <v>1197.21</v>
       </c>
       <c r="S18" s="1">
-        <v>-127.623000</v>
+        <v>-127.623</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>15908.146009</v>
       </c>
       <c r="V18" s="1">
-        <v>4.418929</v>
+        <v>4.4189290000000003</v>
       </c>
       <c r="W18" s="1">
-        <v>1204.060000</v>
+        <v>1204.06</v>
       </c>
       <c r="X18" s="1">
-        <v>-106.781000</v>
+        <v>-106.78100000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>15918.335851</v>
       </c>
       <c r="AA18" s="1">
-        <v>4.421760</v>
+        <v>4.4217599999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1211.350000</v>
+        <v>1211.3499999999999</v>
       </c>
       <c r="AC18" s="1">
-        <v>-89.941200</v>
+        <v>-89.941199999999995</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>15928.748867</v>
@@ -4683,210 +5099,210 @@
         <v>4.424652</v>
       </c>
       <c r="AG18" s="1">
-        <v>1215.580000</v>
+        <v>1215.58</v>
       </c>
       <c r="AH18" s="1">
-        <v>-85.644500</v>
+        <v>-85.644499999999994</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>15939.257071</v>
       </c>
       <c r="AK18" s="1">
-        <v>4.427571</v>
+        <v>4.4275710000000004</v>
       </c>
       <c r="AL18" s="1">
-        <v>1222.600000</v>
+        <v>1222.5999999999999</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.037200</v>
+        <v>-89.037199999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>15950.148722</v>
       </c>
       <c r="AP18" s="1">
-        <v>4.430597</v>
+        <v>4.4305969999999997</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1230.430000</v>
+        <v>1230.43</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.124000</v>
+        <v>-101.124</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>15961.171812</v>
+        <v>15961.171812000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>4.433659</v>
+        <v>4.4336589999999996</v>
       </c>
       <c r="AV18" s="1">
-        <v>1240.340000</v>
+        <v>1240.3399999999999</v>
       </c>
       <c r="AW18" s="1">
-        <v>-120.563000</v>
+        <v>-120.563</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>15972.083300</v>
+        <v>15972.0833</v>
       </c>
       <c r="AZ18" s="1">
-        <v>4.436690</v>
+        <v>4.4366899999999996</v>
       </c>
       <c r="BA18" s="1">
-        <v>1248.760000</v>
+        <v>1248.76</v>
       </c>
       <c r="BB18" s="1">
-        <v>-138.119000</v>
+        <v>-138.119</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>15983.126730</v>
+        <v>15983.12673</v>
       </c>
       <c r="BE18" s="1">
-        <v>4.439757</v>
+        <v>4.4397570000000002</v>
       </c>
       <c r="BF18" s="1">
-        <v>1288.690000</v>
+        <v>1288.69</v>
       </c>
       <c r="BG18" s="1">
-        <v>-220.285000</v>
+        <v>-220.285</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>15994.086359</v>
+        <v>15994.086359000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>4.442802</v>
+        <v>4.4428020000000004</v>
       </c>
       <c r="BK18" s="1">
-        <v>1358.020000</v>
+        <v>1358.02</v>
       </c>
       <c r="BL18" s="1">
-        <v>-357.181000</v>
+        <v>-357.18099999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>16005.781495</v>
+        <v>16005.781494999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>4.446050</v>
+        <v>4.4460499999999996</v>
       </c>
       <c r="BP18" s="1">
-        <v>1471.840000</v>
+        <v>1471.84</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-580.649000</v>
+        <v>-580.649</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>16016.796153</v>
+        <v>16016.796152999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>4.449110</v>
+        <v>4.4491100000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1603.630000</v>
+        <v>1603.63</v>
       </c>
       <c r="BV18" s="1">
-        <v>-833.700000</v>
+        <v>-833.7</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>16027.655068</v>
       </c>
       <c r="BY18" s="1">
-        <v>4.452126</v>
+        <v>4.4521259999999998</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1755.250000</v>
+        <v>1755.25</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1108.820000</v>
+        <v>-1108.82</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>16040.196906</v>
+        <v>16040.196905999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>4.455610</v>
+        <v>4.4556100000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>2176.200000</v>
+        <v>2176.1999999999998</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1778.420000</v>
+        <v>-1778.42</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>15866.468175</v>
       </c>
       <c r="B19" s="1">
-        <v>4.407352</v>
+        <v>4.4073520000000004</v>
       </c>
       <c r="C19" s="1">
-        <v>1141.590000</v>
+        <v>1141.5899999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-258.137000</v>
+        <v>-258.137</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>15876.906019</v>
       </c>
       <c r="G19" s="1">
-        <v>4.410252</v>
+        <v>4.4102519999999998</v>
       </c>
       <c r="H19" s="1">
-        <v>1162.380000</v>
+        <v>1162.3800000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-216.232000</v>
+        <v>-216.232</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>15887.440054</v>
+        <v>15887.440054000001</v>
       </c>
       <c r="L19" s="1">
-        <v>4.413178</v>
+        <v>4.4131780000000003</v>
       </c>
       <c r="M19" s="1">
-        <v>1189.720000</v>
+        <v>1189.72</v>
       </c>
       <c r="N19" s="1">
-        <v>-149.336000</v>
+        <v>-149.33600000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>15898.003815</v>
@@ -4895,88 +5311,88 @@
         <v>4.416112</v>
       </c>
       <c r="R19" s="1">
-        <v>1197.180000</v>
+        <v>1197.18</v>
       </c>
       <c r="S19" s="1">
-        <v>-127.678000</v>
+        <v>-127.678</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>15908.491256</v>
+        <v>15908.491255999999</v>
       </c>
       <c r="V19" s="1">
-        <v>4.419025</v>
+        <v>4.4190250000000004</v>
       </c>
       <c r="W19" s="1">
-        <v>1204.090000</v>
+        <v>1204.0899999999999</v>
       </c>
       <c r="X19" s="1">
-        <v>-106.755000</v>
+        <v>-106.755</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>15918.684508</v>
       </c>
       <c r="AA19" s="1">
-        <v>4.421857</v>
+        <v>4.4218570000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>1211.280000</v>
+        <v>1211.28</v>
       </c>
       <c r="AC19" s="1">
-        <v>-89.884200</v>
+        <v>-89.884200000000007</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>15929.099005</v>
       </c>
       <c r="AF19" s="1">
-        <v>4.424750</v>
+        <v>4.4247500000000004</v>
       </c>
       <c r="AG19" s="1">
-        <v>1215.670000</v>
+        <v>1215.67</v>
       </c>
       <c r="AH19" s="1">
-        <v>-85.525600</v>
+        <v>-85.525599999999997</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>15939.673711</v>
+        <v>15939.673710999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>4.427687</v>
+        <v>4.4276869999999997</v>
       </c>
       <c r="AL19" s="1">
-        <v>1222.570000</v>
+        <v>1222.57</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.041200</v>
+        <v>-89.041200000000003</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>15950.446850</v>
+        <v>15950.44685</v>
       </c>
       <c r="AP19" s="1">
-        <v>4.430680</v>
+        <v>4.4306799999999997</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1230.450000</v>
+        <v>1230.45</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.100000</v>
+        <v>-101.1</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>15961.482307</v>
@@ -4985,452 +5401,452 @@
         <v>4.433745</v>
       </c>
       <c r="AV19" s="1">
-        <v>1240.350000</v>
+        <v>1240.3499999999999</v>
       </c>
       <c r="AW19" s="1">
-        <v>-120.582000</v>
+        <v>-120.58199999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>15972.441940</v>
+        <v>15972.441940000001</v>
       </c>
       <c r="AZ19" s="1">
-        <v>4.436789</v>
+        <v>4.4367890000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1248.740000</v>
+        <v>1248.74</v>
       </c>
       <c r="BB19" s="1">
-        <v>-138.119000</v>
+        <v>-138.119</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>15983.484374</v>
       </c>
       <c r="BE19" s="1">
-        <v>4.439857</v>
+        <v>4.4398569999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1288.700000</v>
+        <v>1288.7</v>
       </c>
       <c r="BG19" s="1">
-        <v>-220.269000</v>
+        <v>-220.26900000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>15994.466300</v>
+        <v>15994.4663</v>
       </c>
       <c r="BJ19" s="1">
-        <v>4.442907</v>
+        <v>4.4429069999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1358.030000</v>
+        <v>1358.03</v>
       </c>
       <c r="BL19" s="1">
-        <v>-357.254000</v>
+        <v>-357.25400000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>16006.206071</v>
+        <v>16006.206071000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>4.446168</v>
+        <v>4.4461680000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1471.820000</v>
+        <v>1471.82</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-580.697000</v>
+        <v>-580.697</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>16017.225688</v>
       </c>
       <c r="BT19" s="1">
-        <v>4.449229</v>
+        <v>4.4492289999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1603.600000</v>
+        <v>1603.6</v>
       </c>
       <c r="BV19" s="1">
-        <v>-833.723000</v>
+        <v>-833.72299999999996</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>16028.098492</v>
+        <v>16028.098491999999</v>
       </c>
       <c r="BY19" s="1">
-        <v>4.452250</v>
+        <v>4.4522500000000003</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1755.110000</v>
+        <v>1755.11</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1108.750000</v>
+        <v>-1108.75</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>16040.740027</v>
       </c>
       <c r="CD19" s="1">
-        <v>4.455761</v>
+        <v>4.4557609999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>2173.590000</v>
+        <v>2173.59</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1777.740000</v>
+        <v>-1777.74</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>15866.839216</v>
       </c>
       <c r="B20" s="1">
-        <v>4.407455</v>
+        <v>4.4074549999999997</v>
       </c>
       <c r="C20" s="1">
-        <v>1141.780000</v>
+        <v>1141.78</v>
       </c>
       <c r="D20" s="1">
-        <v>-258.016000</v>
+        <v>-258.01600000000002</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>15877.286204</v>
       </c>
       <c r="G20" s="1">
-        <v>4.410357</v>
+        <v>4.4103570000000003</v>
       </c>
       <c r="H20" s="1">
-        <v>1162.440000</v>
+        <v>1162.44</v>
       </c>
       <c r="I20" s="1">
-        <v>-215.515000</v>
+        <v>-215.51499999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>15887.786261</v>
+        <v>15887.786260999999</v>
       </c>
       <c r="L20" s="1">
-        <v>4.413274</v>
+        <v>4.4132740000000004</v>
       </c>
       <c r="M20" s="1">
-        <v>1189.590000</v>
+        <v>1189.5899999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-149.573000</v>
+        <v>-149.57300000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>15898.352502</v>
       </c>
       <c r="Q20" s="1">
-        <v>4.416209</v>
+        <v>4.4162090000000003</v>
       </c>
       <c r="R20" s="1">
-        <v>1197.140000</v>
+        <v>1197.1400000000001</v>
       </c>
       <c r="S20" s="1">
-        <v>-127.634000</v>
+        <v>-127.634</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>15908.841896</v>
       </c>
       <c r="V20" s="1">
-        <v>4.419123</v>
+        <v>4.4191229999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>1204.070000</v>
+        <v>1204.07</v>
       </c>
       <c r="X20" s="1">
-        <v>-106.778000</v>
+        <v>-106.77800000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>15919.111562</v>
       </c>
       <c r="AA20" s="1">
-        <v>4.421975</v>
+        <v>4.4219749999999998</v>
       </c>
       <c r="AB20" s="1">
-        <v>1211.230000</v>
+        <v>1211.23</v>
       </c>
       <c r="AC20" s="1">
-        <v>-89.827700</v>
+        <v>-89.827699999999993</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>15929.520605</v>
       </c>
       <c r="AF20" s="1">
-        <v>4.424867</v>
+        <v>4.4248669999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>1215.620000</v>
+        <v>1215.6199999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-85.500000</v>
+        <v>-85.5</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>15939.966878</v>
+        <v>15939.966877999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>4.427769</v>
+        <v>4.4277689999999996</v>
       </c>
       <c r="AL20" s="1">
-        <v>1222.590000</v>
+        <v>1222.5899999999999</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.067700</v>
+        <v>-89.067700000000002</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>15950.808898</v>
+        <v>15950.808897999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>4.430780</v>
+        <v>4.4307800000000004</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1230.440000</v>
+        <v>1230.44</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.145000</v>
+        <v>-101.145</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>15961.835459</v>
       </c>
       <c r="AU20" s="1">
-        <v>4.433843</v>
+        <v>4.4338430000000004</v>
       </c>
       <c r="AV20" s="1">
-        <v>1240.360000</v>
+        <v>1240.3599999999999</v>
       </c>
       <c r="AW20" s="1">
-        <v>-120.562000</v>
+        <v>-120.562</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>15972.800019</v>
       </c>
       <c r="AZ20" s="1">
-        <v>4.436889</v>
+        <v>4.4368889999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1248.720000</v>
+        <v>1248.72</v>
       </c>
       <c r="BB20" s="1">
-        <v>-138.114000</v>
+        <v>-138.114</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>15984.206516</v>
       </c>
       <c r="BE20" s="1">
-        <v>4.440057</v>
+        <v>4.4400570000000004</v>
       </c>
       <c r="BF20" s="1">
-        <v>1288.700000</v>
+        <v>1288.7</v>
       </c>
       <c r="BG20" s="1">
-        <v>-220.302000</v>
+        <v>-220.30199999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>15995.227125</v>
+        <v>15995.227124999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>4.443119</v>
+        <v>4.4431190000000003</v>
       </c>
       <c r="BK20" s="1">
-        <v>1357.990000</v>
+        <v>1357.99</v>
       </c>
       <c r="BL20" s="1">
-        <v>-357.239000</v>
+        <v>-357.23899999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>16006.599895</v>
+        <v>16006.599894999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>4.446278</v>
+        <v>4.4462780000000004</v>
       </c>
       <c r="BP20" s="1">
-        <v>1471.790000</v>
+        <v>1471.79</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-580.664000</v>
+        <v>-580.66399999999999</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>16017.635929</v>
       </c>
       <c r="BT20" s="1">
-        <v>4.449343</v>
+        <v>4.4493429999999998</v>
       </c>
       <c r="BU20" s="1">
-        <v>1603.620000</v>
+        <v>1603.62</v>
       </c>
       <c r="BV20" s="1">
-        <v>-833.738000</v>
+        <v>-833.73800000000006</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>16028.543402</v>
+        <v>16028.543401999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>4.452373</v>
+        <v>4.4523729999999997</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1755.080000</v>
+        <v>1755.08</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1108.950000</v>
+        <v>-1108.95</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>16041.594136</v>
       </c>
       <c r="CD20" s="1">
-        <v>4.455998</v>
+        <v>4.4559980000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>2175.600000</v>
+        <v>2175.6</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1777.960000</v>
+        <v>-1777.96</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>15867.185390</v>
+        <v>15867.185390000001</v>
       </c>
       <c r="B21" s="1">
-        <v>4.407551</v>
+        <v>4.4075509999999998</v>
       </c>
       <c r="C21" s="1">
-        <v>1141.550000</v>
+        <v>1141.55</v>
       </c>
       <c r="D21" s="1">
-        <v>-258.174000</v>
+        <v>-258.17399999999998</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>15877.632129</v>
       </c>
       <c r="G21" s="1">
-        <v>4.410453</v>
+        <v>4.4104530000000004</v>
       </c>
       <c r="H21" s="1">
-        <v>1162.760000</v>
+        <v>1162.76</v>
       </c>
       <c r="I21" s="1">
-        <v>-216.209000</v>
+        <v>-216.209</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>15888.129955</v>
       </c>
       <c r="L21" s="1">
-        <v>4.413369</v>
+        <v>4.4133690000000003</v>
       </c>
       <c r="M21" s="1">
-        <v>1189.620000</v>
+        <v>1189.6199999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-149.761000</v>
+        <v>-149.761</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>15898.773143</v>
       </c>
       <c r="Q21" s="1">
-        <v>4.416326</v>
+        <v>4.4163259999999998</v>
       </c>
       <c r="R21" s="1">
-        <v>1197.130000</v>
+        <v>1197.1300000000001</v>
       </c>
       <c r="S21" s="1">
-        <v>-127.592000</v>
+        <v>-127.592</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>15909.270441</v>
+        <v>15909.270441000001</v>
       </c>
       <c r="V21" s="1">
-        <v>4.419242</v>
+        <v>4.4192419999999997</v>
       </c>
       <c r="W21" s="1">
-        <v>1204.090000</v>
+        <v>1204.0899999999999</v>
       </c>
       <c r="X21" s="1">
-        <v>-106.703000</v>
+        <v>-106.703</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>15919.389818</v>
@@ -5439,285 +5855,285 @@
         <v>4.422053</v>
       </c>
       <c r="AB21" s="1">
-        <v>1211.150000</v>
+        <v>1211.1500000000001</v>
       </c>
       <c r="AC21" s="1">
-        <v>-89.887500</v>
+        <v>-89.887500000000003</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>15929.809772</v>
+        <v>15929.809772000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>4.424947</v>
+        <v>4.4249470000000004</v>
       </c>
       <c r="AG21" s="1">
-        <v>1215.600000</v>
+        <v>1215.5999999999999</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.390400</v>
+        <v>-85.3904</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>15940.315536</v>
       </c>
       <c r="AK21" s="1">
-        <v>4.427865</v>
+        <v>4.4278649999999997</v>
       </c>
       <c r="AL21" s="1">
-        <v>1222.560000</v>
+        <v>1222.56</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.037800</v>
+        <v>-89.037800000000004</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>15951.170016</v>
       </c>
       <c r="AP21" s="1">
-        <v>4.430881</v>
+        <v>4.4308810000000003</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1230.430000</v>
+        <v>1230.43</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.126000</v>
+        <v>-101.126</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>15962.209937</v>
       </c>
       <c r="AU21" s="1">
-        <v>4.433947</v>
+        <v>4.4339469999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1240.350000</v>
+        <v>1240.3499999999999</v>
       </c>
       <c r="AW21" s="1">
-        <v>-120.563000</v>
+        <v>-120.563</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>15973.519219</v>
       </c>
       <c r="AZ21" s="1">
-        <v>4.437089</v>
+        <v>4.4370890000000003</v>
       </c>
       <c r="BA21" s="1">
-        <v>1248.760000</v>
+        <v>1248.76</v>
       </c>
       <c r="BB21" s="1">
-        <v>-138.108000</v>
+        <v>-138.108</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>15984.595876</v>
+        <v>15984.595875999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>4.440166</v>
+        <v>4.4401659999999996</v>
       </c>
       <c r="BF21" s="1">
-        <v>1288.720000</v>
+        <v>1288.72</v>
       </c>
       <c r="BG21" s="1">
-        <v>-220.332000</v>
+        <v>-220.33199999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>15995.642783</v>
+        <v>15995.642782999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>4.443234</v>
+        <v>4.4432340000000003</v>
       </c>
       <c r="BK21" s="1">
-        <v>1358.060000</v>
+        <v>1358.06</v>
       </c>
       <c r="BL21" s="1">
-        <v>-357.237000</v>
+        <v>-357.23700000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>16007.021494</v>
+        <v>16007.021494000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>4.446395</v>
+        <v>4.4463949999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1471.840000</v>
+        <v>1471.84</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-580.640000</v>
+        <v>-580.64</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>16018.373562</v>
+        <v>16018.373562000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>4.449548</v>
+        <v>4.4495480000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1603.590000</v>
+        <v>1603.59</v>
       </c>
       <c r="BV21" s="1">
-        <v>-833.708000</v>
+        <v>-833.70799999999997</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>16029.003193</v>
       </c>
       <c r="BY21" s="1">
-        <v>4.452501</v>
+        <v>4.4525009999999998</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1755.050000</v>
+        <v>1755.05</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1108.920000</v>
+        <v>-1108.92</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>16041.817339</v>
+        <v>16041.817338999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>4.456060</v>
+        <v>4.4560599999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>2175.770000</v>
+        <v>2175.77</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1777.900000</v>
+        <v>-1777.9</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>15867.523694</v>
       </c>
       <c r="B22" s="1">
-        <v>4.407645</v>
+        <v>4.4076449999999996</v>
       </c>
       <c r="C22" s="1">
-        <v>1141.650000</v>
+        <v>1141.6500000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-258.163000</v>
+        <v>-258.16300000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>15877.976848</v>
       </c>
       <c r="G22" s="1">
-        <v>4.410549</v>
+        <v>4.4105489999999996</v>
       </c>
       <c r="H22" s="1">
-        <v>1162.940000</v>
+        <v>1162.94</v>
       </c>
       <c r="I22" s="1">
-        <v>-216.169000</v>
+        <v>-216.16900000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>15888.549111</v>
       </c>
       <c r="L22" s="1">
-        <v>4.413486</v>
+        <v>4.4134859999999998</v>
       </c>
       <c r="M22" s="1">
-        <v>1189.700000</v>
+        <v>1189.7</v>
       </c>
       <c r="N22" s="1">
-        <v>-149.593000</v>
+        <v>-149.59299999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>15899.065750</v>
+        <v>15899.06575</v>
       </c>
       <c r="Q22" s="1">
-        <v>4.416407</v>
+        <v>4.4164070000000004</v>
       </c>
       <c r="R22" s="1">
-        <v>1197.100000</v>
+        <v>1197.0999999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>-127.541000</v>
+        <v>-127.541</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>15909.539299</v>
       </c>
       <c r="V22" s="1">
-        <v>4.419316</v>
+        <v>4.4193160000000002</v>
       </c>
       <c r="W22" s="1">
-        <v>1204.060000</v>
+        <v>1204.06</v>
       </c>
       <c r="X22" s="1">
-        <v>-106.846000</v>
+        <v>-106.846</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>15919.739497</v>
       </c>
       <c r="AA22" s="1">
-        <v>4.422150</v>
+        <v>4.4221500000000002</v>
       </c>
       <c r="AB22" s="1">
-        <v>1211.100000</v>
+        <v>1211.0999999999999</v>
       </c>
       <c r="AC22" s="1">
-        <v>-89.960800</v>
+        <v>-89.960800000000006</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>15930.147950</v>
+        <v>15930.14795</v>
       </c>
       <c r="AF22" s="1">
-        <v>4.425041</v>
+        <v>4.4250410000000002</v>
       </c>
       <c r="AG22" s="1">
-        <v>1215.620000</v>
+        <v>1215.6199999999999</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.480000</v>
+        <v>-85.48</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>15940.664719</v>
@@ -5726,1178 +6142,1179 @@
         <v>4.427962</v>
       </c>
       <c r="AL22" s="1">
-        <v>1222.580000</v>
+        <v>1222.58</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.056800</v>
+        <v>-89.056799999999996</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>15951.888222</v>
       </c>
       <c r="AP22" s="1">
-        <v>4.431080</v>
+        <v>4.4310799999999997</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1230.420000</v>
+        <v>1230.42</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.113000</v>
+        <v>-101.113</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>15962.968320</v>
+        <v>15962.96832</v>
       </c>
       <c r="AU22" s="1">
         <v>4.434158</v>
       </c>
       <c r="AV22" s="1">
-        <v>1240.330000</v>
+        <v>1240.33</v>
       </c>
       <c r="AW22" s="1">
-        <v>-120.558000</v>
+        <v>-120.55800000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>15973.896706</v>
       </c>
       <c r="AZ22" s="1">
-        <v>4.437194</v>
+        <v>4.4371939999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1248.740000</v>
+        <v>1248.74</v>
       </c>
       <c r="BB22" s="1">
-        <v>-138.139000</v>
+        <v>-138.13900000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>15984.956963</v>
+        <v>15984.956963000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>4.440266</v>
+        <v>4.4402660000000003</v>
       </c>
       <c r="BF22" s="1">
-        <v>1288.650000</v>
+        <v>1288.6500000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-220.289000</v>
+        <v>-220.28899999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>15996.314852</v>
       </c>
       <c r="BJ22" s="1">
-        <v>4.443421</v>
+        <v>4.4434209999999998</v>
       </c>
       <c r="BK22" s="1">
-        <v>1358.010000</v>
+        <v>1358.01</v>
       </c>
       <c r="BL22" s="1">
-        <v>-357.285000</v>
+        <v>-357.28500000000003</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>16007.726818</v>
+        <v>16007.726817999999</v>
       </c>
       <c r="BO22" s="1">
-        <v>4.446591</v>
+        <v>4.4465909999999997</v>
       </c>
       <c r="BP22" s="1">
-        <v>1471.790000</v>
+        <v>1471.79</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-580.659000</v>
+        <v>-580.65899999999999</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>16018.492471</v>
       </c>
       <c r="BT22" s="1">
-        <v>4.449581</v>
+        <v>4.4495810000000002</v>
       </c>
       <c r="BU22" s="1">
-        <v>1603.570000</v>
+        <v>1603.57</v>
       </c>
       <c r="BV22" s="1">
-        <v>-833.661000</v>
+        <v>-833.66099999999994</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>16029.365768</v>
       </c>
       <c r="BY22" s="1">
-        <v>4.452602</v>
+        <v>4.4526019999999997</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1755.060000</v>
+        <v>1755.06</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1108.910000</v>
+        <v>-1108.9100000000001</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>16042.334665</v>
       </c>
       <c r="CD22" s="1">
-        <v>4.456204</v>
+        <v>4.4562039999999996</v>
       </c>
       <c r="CE22" s="1">
-        <v>2173.960000</v>
+        <v>2173.96</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1777.040000</v>
+        <v>-1777.04</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>15867.945759</v>
       </c>
       <c r="B23" s="1">
-        <v>4.407763</v>
+        <v>4.4077630000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>1141.440000</v>
+        <v>1141.44</v>
       </c>
       <c r="D23" s="1">
-        <v>-258.062000</v>
+        <v>-258.06200000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>15878.396960</v>
+        <v>15878.39696</v>
       </c>
       <c r="G23" s="1">
         <v>4.410666</v>
       </c>
       <c r="H23" s="1">
-        <v>1163.920000</v>
+        <v>1163.92</v>
       </c>
       <c r="I23" s="1">
-        <v>-216.499000</v>
+        <v>-216.499</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>15888.842738</v>
+        <v>15888.842737999999</v>
       </c>
       <c r="L23" s="1">
-        <v>4.413567</v>
+        <v>4.4135669999999996</v>
       </c>
       <c r="M23" s="1">
-        <v>1189.660000</v>
+        <v>1189.6600000000001</v>
       </c>
       <c r="N23" s="1">
-        <v>-149.779000</v>
+        <v>-149.779</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>15899.412989</v>
       </c>
       <c r="Q23" s="1">
-        <v>4.416504</v>
+        <v>4.4165039999999998</v>
       </c>
       <c r="R23" s="1">
-        <v>1197.160000</v>
+        <v>1197.1600000000001</v>
       </c>
       <c r="S23" s="1">
-        <v>-127.554000</v>
+        <v>-127.554</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>15909.885510</v>
+        <v>15909.88551</v>
       </c>
       <c r="V23" s="1">
-        <v>4.419413</v>
+        <v>4.4194129999999996</v>
       </c>
       <c r="W23" s="1">
-        <v>1204.050000</v>
+        <v>1204.05</v>
       </c>
       <c r="X23" s="1">
-        <v>-106.722000</v>
+        <v>-106.72199999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>15920.087722</v>
       </c>
       <c r="AA23" s="1">
-        <v>4.422247</v>
+        <v>4.4222469999999996</v>
       </c>
       <c r="AB23" s="1">
-        <v>1211.210000</v>
+        <v>1211.21</v>
       </c>
       <c r="AC23" s="1">
-        <v>-89.882100</v>
+        <v>-89.882099999999994</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>15930.831531</v>
       </c>
       <c r="AF23" s="1">
-        <v>4.425231</v>
+        <v>4.4252310000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1215.690000</v>
+        <v>1215.69</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.453000</v>
+        <v>-85.453000000000003</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>15941.362621</v>
       </c>
       <c r="AK23" s="1">
-        <v>4.428156</v>
+        <v>4.4281560000000004</v>
       </c>
       <c r="AL23" s="1">
-        <v>1222.570000</v>
+        <v>1222.57</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.054400</v>
+        <v>-89.054400000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>15952.248814</v>
       </c>
       <c r="AP23" s="1">
-        <v>4.431180</v>
+        <v>4.4311800000000003</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1230.430000</v>
+        <v>1230.43</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.127000</v>
+        <v>-101.127</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>15963.330400</v>
+        <v>15963.330400000001</v>
       </c>
       <c r="AU23" s="1">
-        <v>4.434258</v>
+        <v>4.4342579999999998</v>
       </c>
       <c r="AV23" s="1">
-        <v>1240.330000</v>
+        <v>1240.33</v>
       </c>
       <c r="AW23" s="1">
-        <v>-120.575000</v>
+        <v>-120.575</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>15974.274625</v>
       </c>
       <c r="AZ23" s="1">
-        <v>4.437299</v>
+        <v>4.4372990000000003</v>
       </c>
       <c r="BA23" s="1">
-        <v>1248.700000</v>
+        <v>1248.7</v>
       </c>
       <c r="BB23" s="1">
-        <v>-138.122000</v>
+        <v>-138.12200000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>15985.633539</v>
       </c>
       <c r="BE23" s="1">
-        <v>4.440454</v>
+        <v>4.4404539999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1288.660000</v>
+        <v>1288.6600000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-220.288000</v>
+        <v>-220.28800000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>15996.755301</v>
+        <v>15996.755300999999</v>
       </c>
       <c r="BJ23" s="1">
         <v>4.443543</v>
       </c>
       <c r="BK23" s="1">
-        <v>1358.090000</v>
+        <v>1358.09</v>
       </c>
       <c r="BL23" s="1">
-        <v>-357.234000</v>
+        <v>-357.23399999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>16007.839899</v>
+        <v>16007.839899000001</v>
       </c>
       <c r="BO23" s="1">
-        <v>4.446622</v>
+        <v>4.4466219999999996</v>
       </c>
       <c r="BP23" s="1">
-        <v>1471.820000</v>
+        <v>1471.82</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-580.684000</v>
+        <v>-580.68399999999997</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>16018.906858</v>
       </c>
       <c r="BT23" s="1">
-        <v>4.449696</v>
+        <v>4.4496960000000003</v>
       </c>
       <c r="BU23" s="1">
-        <v>1603.610000</v>
+        <v>1603.61</v>
       </c>
       <c r="BV23" s="1">
-        <v>-833.779000</v>
+        <v>-833.779</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>16029.789351</v>
+        <v>16029.789350999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>4.452719</v>
+        <v>4.4527190000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1755.180000</v>
+        <v>1755.18</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1108.920000</v>
+        <v>-1108.92</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>16042.852023</v>
+        <v>16042.852022999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>4.456348</v>
+        <v>4.4563480000000002</v>
       </c>
       <c r="CE23" s="1">
-        <v>2174.830000</v>
+        <v>2174.83</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1779.430000</v>
+        <v>-1779.43</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>15868.226989</v>
+        <v>15868.226989000001</v>
       </c>
       <c r="B24" s="1">
-        <v>4.407841</v>
+        <v>4.4078410000000003</v>
       </c>
       <c r="C24" s="1">
-        <v>1141.480000</v>
+        <v>1141.48</v>
       </c>
       <c r="D24" s="1">
-        <v>-258.283000</v>
+        <v>-258.28300000000002</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>15878.673232</v>
+        <v>15878.673231999999</v>
       </c>
       <c r="G24" s="1">
-        <v>4.410743</v>
+        <v>4.4107430000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>1162.730000</v>
+        <v>1162.73</v>
       </c>
       <c r="I24" s="1">
-        <v>-216.334000</v>
+        <v>-216.334</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>15889.188952</v>
       </c>
       <c r="L24" s="1">
-        <v>4.413664</v>
+        <v>4.4136639999999998</v>
       </c>
       <c r="M24" s="1">
-        <v>1189.480000</v>
+        <v>1189.48</v>
       </c>
       <c r="N24" s="1">
-        <v>-149.701000</v>
+        <v>-149.70099999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>15899.758660</v>
+        <v>15899.75866</v>
       </c>
       <c r="Q24" s="1">
-        <v>4.416600</v>
+        <v>4.4165999999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1197.190000</v>
+        <v>1197.19</v>
       </c>
       <c r="S24" s="1">
-        <v>-127.603000</v>
+        <v>-127.60299999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>15910.230199</v>
       </c>
       <c r="V24" s="1">
-        <v>4.419508</v>
+        <v>4.4195080000000004</v>
       </c>
       <c r="W24" s="1">
-        <v>1204.170000</v>
+        <v>1204.17</v>
       </c>
       <c r="X24" s="1">
-        <v>-106.672000</v>
+        <v>-106.672</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>15920.793992</v>
+        <v>15920.793992000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>4.422443</v>
+        <v>4.4224430000000003</v>
       </c>
       <c r="AB24" s="1">
-        <v>1211.240000</v>
+        <v>1211.24</v>
       </c>
       <c r="AC24" s="1">
-        <v>-89.957400</v>
+        <v>-89.957400000000007</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>15931.174274</v>
+        <v>15931.174274000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>4.425326</v>
+        <v>4.4253260000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1215.770000</v>
+        <v>1215.77</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.539900</v>
+        <v>-85.539900000000003</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>15941.710780</v>
+        <v>15941.710779999999</v>
       </c>
       <c r="AK24" s="1">
-        <v>4.428253</v>
+        <v>4.4282529999999998</v>
       </c>
       <c r="AL24" s="1">
-        <v>1222.570000</v>
+        <v>1222.57</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.048000</v>
+        <v>-89.048000000000002</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>15952.610862</v>
       </c>
       <c r="AP24" s="1">
-        <v>4.431281</v>
+        <v>4.4312810000000002</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1230.420000</v>
+        <v>1230.42</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.128000</v>
+        <v>-101.128</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>15964.011407</v>
       </c>
       <c r="AU24" s="1">
-        <v>4.434448</v>
+        <v>4.4344479999999997</v>
       </c>
       <c r="AV24" s="1">
-        <v>1240.350000</v>
+        <v>1240.3499999999999</v>
       </c>
       <c r="AW24" s="1">
-        <v>-120.573000</v>
+        <v>-120.57299999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>15974.943740</v>
+        <v>15974.943740000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>4.437484</v>
+        <v>4.4374840000000004</v>
       </c>
       <c r="BA24" s="1">
-        <v>1248.750000</v>
+        <v>1248.75</v>
       </c>
       <c r="BB24" s="1">
-        <v>-138.122000</v>
+        <v>-138.12200000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>15986.066532</v>
+        <v>15986.066532000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>4.440574</v>
+        <v>4.4405739999999998</v>
       </c>
       <c r="BF24" s="1">
-        <v>1288.710000</v>
+        <v>1288.71</v>
       </c>
       <c r="BG24" s="1">
-        <v>-220.312000</v>
+        <v>-220.31200000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>15997.153618</v>
       </c>
       <c r="BJ24" s="1">
-        <v>4.443654</v>
+        <v>4.4436540000000004</v>
       </c>
       <c r="BK24" s="1">
-        <v>1358.010000</v>
+        <v>1358.01</v>
       </c>
       <c r="BL24" s="1">
-        <v>-357.311000</v>
+        <v>-357.31099999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>16008.265492</v>
       </c>
       <c r="BO24" s="1">
-        <v>4.446740</v>
+        <v>4.4467400000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1471.850000</v>
+        <v>1471.85</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-580.667000</v>
+        <v>-580.66700000000003</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>16019.336663</v>
       </c>
       <c r="BT24" s="1">
-        <v>4.449816</v>
+        <v>4.4498160000000002</v>
       </c>
       <c r="BU24" s="1">
-        <v>1603.530000</v>
+        <v>1603.53</v>
       </c>
       <c r="BV24" s="1">
-        <v>-833.804000</v>
+        <v>-833.80399999999997</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>16030.210455</v>
       </c>
       <c r="BY24" s="1">
-        <v>4.452836</v>
+        <v>4.4528359999999996</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1755.280000</v>
+        <v>1755.28</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1108.840000</v>
+        <v>-1108.8399999999999</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>16043.391638</v>
+        <v>16043.391637999999</v>
       </c>
       <c r="CD24" s="1">
-        <v>4.456498</v>
+        <v>4.4564979999999998</v>
       </c>
       <c r="CE24" s="1">
-        <v>2175.660000</v>
+        <v>2175.66</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1777.690000</v>
+        <v>-1777.69</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>15868.566253</v>
+        <v>15868.566253000001</v>
       </c>
       <c r="B25" s="1">
-        <v>4.407935</v>
+        <v>4.4079350000000002</v>
       </c>
       <c r="C25" s="1">
-        <v>1141.590000</v>
+        <v>1141.5899999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-257.966000</v>
+        <v>-257.96600000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>15879.019440</v>
+        <v>15879.01944</v>
       </c>
       <c r="G25" s="1">
-        <v>4.410839</v>
+        <v>4.4108390000000002</v>
       </c>
       <c r="H25" s="1">
-        <v>1162.960000</v>
+        <v>1162.96</v>
       </c>
       <c r="I25" s="1">
-        <v>-215.825000</v>
+        <v>-215.82499999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>15889.533137</v>
       </c>
       <c r="L25" s="1">
-        <v>4.413759</v>
+        <v>4.4137589999999998</v>
       </c>
       <c r="M25" s="1">
-        <v>1189.590000</v>
+        <v>1189.5899999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-149.602000</v>
+        <v>-149.602</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>15900.457523</v>
+        <v>15900.457522999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>4.416794</v>
+        <v>4.4167940000000003</v>
       </c>
       <c r="R25" s="1">
-        <v>1197.130000</v>
+        <v>1197.1300000000001</v>
       </c>
       <c r="S25" s="1">
-        <v>-127.670000</v>
+        <v>-127.67</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>15910.914181</v>
       </c>
       <c r="V25" s="1">
-        <v>4.419698</v>
+        <v>4.4196980000000003</v>
       </c>
       <c r="W25" s="1">
-        <v>1204.100000</v>
+        <v>1204.0999999999999</v>
       </c>
       <c r="X25" s="1">
-        <v>-106.694000</v>
+        <v>-106.694</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>15921.137256</v>
       </c>
       <c r="AA25" s="1">
-        <v>4.422538</v>
+        <v>4.4225380000000003</v>
       </c>
       <c r="AB25" s="1">
-        <v>1211.060000</v>
+        <v>1211.06</v>
       </c>
       <c r="AC25" s="1">
-        <v>-89.918400</v>
+        <v>-89.918400000000005</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>15931.517498</v>
+        <v>15931.517497999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>4.425422</v>
+        <v>4.4254220000000002</v>
       </c>
       <c r="AG25" s="1">
-        <v>1215.590000</v>
+        <v>1215.5899999999999</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.547500</v>
+        <v>-85.547499999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>15942.060460</v>
+        <v>15942.060460000001</v>
       </c>
       <c r="AK25" s="1">
-        <v>4.428350</v>
+        <v>4.42835</v>
       </c>
       <c r="AL25" s="1">
-        <v>1222.580000</v>
+        <v>1222.58</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.021700</v>
+        <v>-89.021699999999996</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>15953.276989</v>
       </c>
       <c r="AP25" s="1">
-        <v>4.431466</v>
+        <v>4.4314660000000003</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1230.430000</v>
+        <v>1230.43</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.098000</v>
+        <v>-101.098</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>15964.422626</v>
       </c>
       <c r="AU25" s="1">
-        <v>4.434562</v>
+        <v>4.4345619999999997</v>
       </c>
       <c r="AV25" s="1">
-        <v>1240.350000</v>
+        <v>1240.3499999999999</v>
       </c>
       <c r="AW25" s="1">
-        <v>-120.568000</v>
+        <v>-120.568</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>15975.358880</v>
+        <v>15975.35888</v>
       </c>
       <c r="AZ25" s="1">
-        <v>4.437600</v>
+        <v>4.4375999999999998</v>
       </c>
       <c r="BA25" s="1">
-        <v>1248.750000</v>
+        <v>1248.75</v>
       </c>
       <c r="BB25" s="1">
-        <v>-138.118000</v>
+        <v>-138.11799999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>15986.426471</v>
+        <v>15986.426471000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>4.440674</v>
+        <v>4.4406739999999996</v>
       </c>
       <c r="BF25" s="1">
-        <v>1288.670000</v>
+        <v>1288.67</v>
       </c>
       <c r="BG25" s="1">
-        <v>-220.301000</v>
+        <v>-220.30099999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>15997.535538</v>
       </c>
       <c r="BJ25" s="1">
-        <v>4.443760</v>
+        <v>4.4437600000000002</v>
       </c>
       <c r="BK25" s="1">
-        <v>1357.970000</v>
+        <v>1357.97</v>
       </c>
       <c r="BL25" s="1">
-        <v>-357.254000</v>
+        <v>-357.25400000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>16008.660772</v>
+        <v>16008.660771999999</v>
       </c>
       <c r="BO25" s="1">
-        <v>4.446850</v>
+        <v>4.4468500000000004</v>
       </c>
       <c r="BP25" s="1">
-        <v>1471.790000</v>
+        <v>1471.79</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-580.645000</v>
+        <v>-580.64499999999998</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>16019.767686</v>
+        <v>16019.767685999999</v>
       </c>
       <c r="BT25" s="1">
         <v>4.449935</v>
       </c>
       <c r="BU25" s="1">
-        <v>1603.540000</v>
+        <v>1603.54</v>
       </c>
       <c r="BV25" s="1">
-        <v>-833.825000</v>
+        <v>-833.82500000000005</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>16030.665782</v>
       </c>
       <c r="BY25" s="1">
-        <v>4.452963</v>
+        <v>4.4529629999999996</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1755.250000</v>
+        <v>1755.25</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1108.860000</v>
+        <v>-1108.8599999999999</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>16043.934757</v>
+        <v>16043.934757000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>4.456649</v>
+        <v>4.4566489999999996</v>
       </c>
       <c r="CE25" s="1">
-        <v>2173.150000</v>
+        <v>2173.15</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1779.020000</v>
+        <v>-1779.02</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>15868.907532</v>
+        <v>15868.907531999999</v>
       </c>
       <c r="B26" s="1">
-        <v>4.408030</v>
+        <v>4.4080300000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>1141.410000</v>
+        <v>1141.4100000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-258.213000</v>
+        <v>-258.21300000000002</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>15879.364159</v>
+        <v>15879.364159000001</v>
       </c>
       <c r="G26" s="1">
-        <v>4.410934</v>
+        <v>4.4109340000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>1162.700000</v>
+        <v>1162.7</v>
       </c>
       <c r="I26" s="1">
-        <v>-215.812000</v>
+        <v>-215.81200000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>15890.226049</v>
+        <v>15890.226049000001</v>
       </c>
       <c r="L26" s="1">
-        <v>4.413952</v>
+        <v>4.4139520000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>1189.630000</v>
+        <v>1189.6300000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-149.703000</v>
+        <v>-149.703</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>15900.804724</v>
       </c>
       <c r="Q26" s="1">
-        <v>4.416890</v>
+        <v>4.4168900000000004</v>
       </c>
       <c r="R26" s="1">
-        <v>1197.070000</v>
+        <v>1197.07</v>
       </c>
       <c r="S26" s="1">
-        <v>-127.628000</v>
+        <v>-127.628</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>15911.258405</v>
       </c>
       <c r="V26" s="1">
-        <v>4.419794</v>
+        <v>4.4197939999999996</v>
       </c>
       <c r="W26" s="1">
-        <v>1204.090000</v>
+        <v>1204.0899999999999</v>
       </c>
       <c r="X26" s="1">
-        <v>-106.769000</v>
+        <v>-106.76900000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>15921.482269</v>
       </c>
       <c r="AA26" s="1">
-        <v>4.422634</v>
+        <v>4.4226340000000004</v>
       </c>
       <c r="AB26" s="1">
-        <v>1211.280000</v>
+        <v>1211.28</v>
       </c>
       <c r="AC26" s="1">
-        <v>-89.780600</v>
+        <v>-89.780600000000007</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>15932.162297</v>
+        <v>15932.162297000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>4.425601</v>
+        <v>4.4256010000000003</v>
       </c>
       <c r="AG26" s="1">
-        <v>1215.650000</v>
+        <v>1215.6500000000001</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.546700</v>
+        <v>-85.546700000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>15942.727579</v>
       </c>
       <c r="AK26" s="1">
-        <v>4.428535</v>
+        <v>4.4285350000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1222.590000</v>
+        <v>1222.5899999999999</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.069400</v>
+        <v>-89.069400000000002</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>15953.718429</v>
       </c>
       <c r="AP26" s="1">
-        <v>4.431588</v>
+        <v>4.4315879999999996</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1230.440000</v>
+        <v>1230.44</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.151000</v>
+        <v>-101.151</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>15964.788174</v>
+        <v>15964.788173999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>4.434663</v>
+        <v>4.4346629999999996</v>
       </c>
       <c r="AV26" s="1">
-        <v>1240.350000</v>
+        <v>1240.3499999999999</v>
       </c>
       <c r="AW26" s="1">
-        <v>-120.545000</v>
+        <v>-120.545</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>15975.733359</v>
       </c>
       <c r="AZ26" s="1">
-        <v>4.437704</v>
+        <v>4.4377040000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1248.720000</v>
+        <v>1248.72</v>
       </c>
       <c r="BB26" s="1">
-        <v>-138.113000</v>
+        <v>-138.113</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>15986.787728</v>
+        <v>15986.787727999999</v>
       </c>
       <c r="BE26" s="1">
-        <v>4.440774</v>
+        <v>4.4407740000000002</v>
       </c>
       <c r="BF26" s="1">
-        <v>1288.680000</v>
+        <v>1288.68</v>
       </c>
       <c r="BG26" s="1">
-        <v>-220.299000</v>
+        <v>-220.29900000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>15997.954628</v>
       </c>
       <c r="BJ26" s="1">
-        <v>4.443876</v>
+        <v>4.4438760000000004</v>
       </c>
       <c r="BK26" s="1">
-        <v>1358.010000</v>
+        <v>1358.01</v>
       </c>
       <c r="BL26" s="1">
-        <v>-357.195000</v>
+        <v>-357.19499999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>16009.083860</v>
+        <v>16009.083860000001</v>
       </c>
       <c r="BO26" s="1">
         <v>4.446968</v>
       </c>
       <c r="BP26" s="1">
-        <v>1471.810000</v>
+        <v>1471.81</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-580.606000</v>
+        <v>-580.60599999999999</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>16020.178372</v>
       </c>
       <c r="BT26" s="1">
-        <v>4.450050</v>
+        <v>4.4500500000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1603.540000</v>
+        <v>1603.54</v>
       </c>
       <c r="BV26" s="1">
-        <v>-833.834000</v>
+        <v>-833.83399999999995</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>16031.081928</v>
       </c>
       <c r="BY26" s="1">
-        <v>4.453078</v>
+        <v>4.4530779999999996</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1755.230000</v>
+        <v>1755.23</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1108.880000</v>
+        <v>-1108.8800000000001</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>16044.474443</v>
+        <v>16044.474442999999</v>
       </c>
       <c r="CD26" s="1">
         <v>4.456798</v>
       </c>
       <c r="CE26" s="1">
-        <v>2175.650000</v>
+        <v>2175.65</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1778.850000</v>
+        <v>-1778.85</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>